--- a/server/AajTak.xlsx
+++ b/server/AajTak.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="76">
   <si>
     <t>Heading</t>
   </si>
@@ -28,205 +28,220 @@
     <t>URL</t>
   </si>
   <si>
-    <t>Competition for credit even before the bill, Congress called women's reservation an initiative of Rajiv, Sonia, Rahul Gandhi</t>
-  </si>
-  <si>
-    <t>It is reported quoting sources that the Women's Reservation Bill has got the approval of the Cabinet. Now this bill will be presented in Parliament. After being passed by both houses of the Parliament, the bill will go to the President. After getting approval from there, this bill will become law. But leave alone passing this bill, it has not even been introduced. Even before that, the battle to take credit is being seen. While the BJP government wants to pass this bill on the basis of its majority, the Congress has tweeted about the bill even before that. Congress released a video and gave credit to the then Prime Minister Rajiv Gandhi for laying the foundation of this bill. In the video, Congress further wrote that Sonia Gandhi had also said regarding this bill in 2011 that we have to get this bill passed in the lower house also. There is also mention of Rahul Gandhi further. Rahul had also said in 2018 that our Congress party is standing with the Modi government to pass this bill. The day the government brings this bill, every Congress MP will support the government in this bill. Despite having a majority, PM Modi has made no effort to pass the Women's Reservation Bill in Lok Sabha. Congress demands immediate passage of the bill in the special session of Parliament. pic.twitter.com/i5GQJ9leZP As soon as the news came, tweets from Congress leaders started pouring in. Apart from this, Congress leader P. Chidambaram tweeted that if the government introduces the Women's Reservation Bill tomorrow, it will be a victory for the Congress and its allies in the UPA government. He further wrote that this bill was passed in the Rajya Sabha on 9 March 2010 during the UPA government. Congress declared its victory. In its 10th year, the BJP is reviving the bill which it had suppressed in the hope that The noise of the bill will end. On the contrary, on every occasion, most recently at the CWC in Hyderabad, the Congress has strongly urged the passage of the Bill in Parliament. The Congress leader wrote that he hopes that the bill will be introduced and passed in the current session. Race for credit before the bill. Congress leader Jairam Ramesh had also tweeted about this bill a day earlier. After the CWC meeting, Jairam Ramesh had tweeted that the Congress Working Committee has demanded that the Women's Reservation Bill should be passed during the special session of Parliament. He also emphasized on some facts. It is written in the tweet of the Congress leader... 1. First of all, in the month of May 1989, Rajiv Gandhi made one-third reservation for women in Panchayats and Municipalities.</t>
+    <t>No house to live in, no food to fill the stomach... The family of the Ujjain rape accused is wandering from door to door loaded with luggage on an e-rickshaw.</t>
+  </si>
+  <si>
+    <t>Police has already arrested Bharat Soni, accused of raping a 12 year old girl in Ujjain, Madhya Pradesh. Yesterday, a bulldozer was also used on its illegal construction. The accused had occupied government land in Nanakheda area. He was living here with his parents, brother and sister-in-law for many years. Not only this, he had also built a temple in the illegal house. His house was demolished in the presence of heavy police force. After the demolition of the illegal house, his family is now forced to wander from door to door. Neither are they getting a place to live nor anything to eat. The accused's parents, sister-in-law and two innocent children are wandering here and there in an e-rickshaw. The parents are considering it as their mistake to give birth to such a child. 'Our only fault is that we gave birth to him'. The mother of the accused says, 'The government should help us, the person who had committed the crime is in police custody. What is our fault? Our only fault is that we gave birth to him. I want to meet the Chief Minister and express my views.'I can't say anything, I will do anything' The mother of the accused further said, "Our entire house is crying. I can't say anything. I will do anything. I am very worried. What mistake have we made that we are not getting a place to live? Any parent who gives birth to a child does not know that after 20 years the child will turn out to be like this.</t>
+  </si>
+  <si>
+    <t>madhya-pradesh</t>
+  </si>
+  <si>
+    <t>https://www.aajtak.in/madhya-pradesh/story/ujjain-rape-case-accused-family-not-getting-place-to-live-request-to-meet-shivraj-singh-chauhan-lclp-1793973-2023-10-06</t>
+  </si>
+  <si>
+    <t>Asian Games, Indian Hockey Team: Team India created history... won gold by defeating Japan, got ticket for Paris Olympics</t>
+  </si>
+  <si>
+    <t>The Indian hockey team has performed brilliantly in the Hangzhou Asian Games and won the gold medal. In the final match played on Friday (6 October), India defeated defending champion Japan 5-1. For India, captain Harmanpreet Singh scored the maximum two goals. Manpreet Singh, Abhishek and Amit Rohidas scored one goal each. The only goal for Japan was scored by Seren Tanaka. With this victory, the Indian hockey team has secured the ticket for next year's Paris Olympics. The Paris Olympics will be played from 26th July to 11th August. Golden Victory Alert: #HockeyHigh portrayed right by our #MenInBlue 🏒Team 🇮🇳 outshines 🇯🇵 5⃣-1⃣ and brings home🥇&amp; also a #ParisOlympics Quota 🥳What a match!!Great work guys💯 Keep shining 🏻 No goals could be scored by either team in the quarter. After a long wait, India managed to score a goal in the 25th minute of the game. Manpreet Singh scored this goal for India. India was leading 1-0 at halftime. Then in the third quarter, India scored two goals in a row. Captain Harmanpreet Singh scored on a penalty corner in the 32nd minute. Then four minutes later (36th minute) Amit Rohidas also scored a goal on the penalty corner. Click here to watch special coverage of Asian Games 2023. After this, India also scored two goals in the fourth quarter. In the first 48th minute, Abhishek scored a brilliant field goal. However, Seren Tanaka converted a penalty corner in the 51st minute to make the score 4-1. Then Harmanpreet scored an excellent goal from a penalty corner in the 59th minute to give India a spectacular 5-1 victory.</t>
+  </si>
+  <si>
+    <t>sports</t>
+  </si>
+  <si>
+    <t>https://www.aajtak.in/sports/news/story/asian-games-hanzhou-india-beat-japan-to-clinch-gold-medal-in-also-qualify-for-paris-olympics-hockey-tspo-1793850-2023-10-06</t>
+  </si>
+  <si>
+    <t>Tiger is still alive! 15 villages, 20 thousand people, 38 deaths in 7 years... The search for the man-eater continues in the forests of Pilibhit.</t>
+  </si>
+  <si>
+    <t>Mission Tiger: Nature provided settlements for humans and forests for animals. As long as both of them stay within their limits, everything remains fine. But as soon as any of them crosses their limits, fear spreads all around. Thousands of people living around Pilibhit Tiger Reserve are also living in similar fear these days. Police and administration also seem helpless. Let us tell you the horrifying story of this fear. Thousands of people are forced to live under the shadow of fear. Sometimes people climb trees out of fear. At some places the police and the village head use the mike to instruct people to move away. Somewhere, efforts are being made to control the situation with tranquilizer guns i.e. intoxicating pills. At some places, cage-like tractors have become the support of forest workers. And somewhere one of man's old friends i.e. elephants is supporting humans. And behind all this is the same Shay. Due to which the population of about 20 thousand people of 15 villages of Pilibhit district of Uttar Pradesh has become restless. The people living there have lost their sleep at night and peace during the day. Yes, that is the Tiger. The Tiger is out of control. People of these villages situated around Pilibhit Tiger Reserve are living under the shadow of fear these days. People can neither complete their work during the day nor go out of their homes at night. I don't know if someone is working in the field and a tiger snatches him away from behind. Yes, people's morale definitely increases after seeing the forest department employees. A crowd of spectators gathers. But then as soon as Operation Tiger is completed, there is silence in the entire area. For the last few days, the same game is going on continuously in different villages, but the tiger is not being controlled. Tiger's entry in the residential areas. Actually, these villages of Pilibhit are situated very close to the Pilibhit Tiger Reserve. Now call it the effect of the increasing population of tigers or the result of human interference in the tiger areas. For the last one month, tigers have started entering the residential areas in such a way that everyone from cattle to humans have started becoming prey to the tigers. In such a situation, disturbance is inevitable in human settlements. But before we tell you the truth about Operation Tiger of the Forest Department amid the chaos in different villages, let us quickly tell you the identities of those people who fell prey to tigers and died. 28 June 2023 Lalta Prasad, village Raniganj 16 August 2023 Ram Murti, village Raniganj 21 September 2023 Raghunath, village Mala Colony 26 September 2023 Totaram, village Jamunia Tigers have increased.</t>
+  </si>
+  <si>
+    <t>crime</t>
+  </si>
+  <si>
+    <t>https://www.aajtak.in/crime/big-crime/story/up-pilibhit-district-tiger-reserve-15-villages-panic-deaths-incidents-forest-department-operation-tiger-search-police-crime-pvzs-1793746-2023-10-06</t>
+  </si>
+  <si>
+    <t>'Satya Prakash's family was very poor and Premchand...', people's words on Deoria massacre</t>
+  </si>
+  <si>
+    <t>The people of the village are still in shock due to the massacre that took place on October 2 in Fatehpur village of Rudrapur police station area in Deoria, Uttar Pradesh. There is silence in the village. Premchand Yadav was murdered near Satya Prakash Dubey's house. After this, Premchand's supporters entered Satya Prakash's house and attacked six people present there. In this, five people including Satya Prakash, his wife, two daughters and a son were brutally murdered. The condition of 8 year old son Anmol remains critical. Police and Revenue Department teams are busy in their action. At the same time, the elder daughter of Satya Prakash Dubey, who was married two years ago, told that there used to be a fight with Premchand over a land dispute. Complaints were made several times. But, the police administration did not take any action. Due to this, members of our family were killed. 'He used to earn his living by doing labour'. Meanwhile, Param Yadav, who lives in the village, told that Satya Prakash's family was very poor. He earned his living by working as a labourer. Whereas Premchand Yadav was a noble person. He used to help everyone. 27 people are named in this murder case. In this, the police has also taken action against the people of Rajbhar community. Also read - 'The family was slaughtered like a goat...', said the victim of Deoria massacre after the action against the officers.</t>
+  </si>
+  <si>
+    <t>uttar-pradesh</t>
+  </si>
+  <si>
+    <t>https://www.aajtak.in/uttar-pradesh/story/deoria-murder-case-people-said-that-satya-prakash-family-was-very-poor-lclp-1793882-2023-10-06</t>
+  </si>
+  <si>
+    <t>What is the 'cruelty' on which Shikhar Dhawan got divorce from his wife Ayesha? Know- what the law says</t>
+  </si>
+  <si>
+    <t>Shikhar Dhawan and Ayesha Mukherjee are no longer husband and wife. The Family Court of Delhi has approved their divorce. The court accepted that because of Ayesha, Dhawan had to go through 'mental torture'. Family Court Judge Harish Kumar has also accepted all the allegations made by Dhawan against his wife Ayesha. The court said that Ayesha either did not oppose these allegations or failed to defend herself. Ayesha, who is 10 years older than Dhawan, is a kick boxer. Shikhar Dhawan married Ayesha in the year 2012. In September 2021, Ayesha had informed about her separation from Dhawan. Finally, in March this year, Shikhar Dhawan filed a divorce case on the grounds of 'cruelty'. 'Cruelty' has come into discussion due to the divorce of Dhawan and Ayesha. In such a situation, do you know what is the meaning of cruelty? And what does the law say on this? What is cruelty? - Both the Hindu Marriage Act of 1955 and the Special Marriage Act of 1954 mention 'cruelty'. The Hindu Marriage Act provides for marriage and divorce of people following the Hindu religion. Whereas, the Special Marriage Act applies to people following two different religions. - There is a provision for 'Divorce' in Section 13 of the Hindu Marriage Act. Some grounds for divorce are given in it. One of these 'cruelty' has also been considered a ground for divorce. - Cruelty is a strong ground for divorce, but there is no mention in the law as to what will be considered cruelty? How will cruelty be proved? - Its definition in the law. So it is not given, but generally cruelty is considered when there is a threat to life, health, body or mental peace. In such a situation it is put under the ambit of cruelty. - What would be cruelty in any case? Only the court will take its final decision. The court has explained about cruelty in its various decisions. - A husband or wife can present physical or mental torture as cruelty. But for this it will also have to be proved. If those seeking divorce on the grounds of cruelty are unable to prove it, then their divorce application may be rejected. In 1998, the Andhra Pradesh High Court had rejected the divorce application because the husband could not prove cruelty against his wife. It may seem like cruelty, but... - After marriage, the husband or wife may feel That their partner is being cruel, but during the divorce application, evidence and circumstances also have to be stated. So that the court can accept that cruelty has taken place. - In 1999, in the case of S. Hanumantha Rao vs. S. Ramani, the Supreme Court had given an important decision on mental cruelty. husband in this case</t>
+  </si>
+  <si>
+    <t>explained</t>
+  </si>
+  <si>
+    <t>https://www.aajtak.in/explained/story/shikhar-dhawan-wife-aesha-mukerji-divorce-what-is-cruelty-in-marriage-hindu-marriage-act-pryd-1793794-2023-10-06</t>
+  </si>
+  <si>
+    <t>The bullet pierced the throat, claws and tongue, a strange firing incident from Maharashtra.</t>
+  </si>
+  <si>
+    <t>A shocking incident has come to light from the welfare of Maharashtra. Where it bit the claws and tongue of a young man and got stuck in his throat. The young man has been admitted to the hospital in critical condition. At present his condition is said to be out of danger. Police have registered the case and started investigation. This incident happened in Mohane area of ​​Titwala. It is being told that Sushilmahanto was sitting with four-five of his friends. During the conversation, a friend shot Sushil. Sushil tried to save himself and the bullet pierced his hand and tongue and got stuck in his throat through his mouth.</t>
   </si>
   <si>
     <t>india</t>
   </si>
   <si>
-    <t>https://www.aajtak.in/india/news/story/competition-for-credit-even-before-the-women-reservation-bill-congress-takes-credit-ntc-1781948-2023-09-18</t>
-  </si>
-  <si>
-    <t>Indian Squad for Australia Series: Indian team announced for Australia series, Rohit-Kohli rested, KL Rahul becomes captain</t>
-  </si>
-  <si>
-    <t>Indian Squad for Australia Series: Indian cricket team won the title of Asia Cup 2023 in a very spectacular manner. He bowled out Sri Lanka for 50 runs. After this, won the final and title by 10 wickets. Now the Indian team has to play a 3-match ODI series against Australia at home. After this series, the Indian team has to play the ODI World Cup 2023 at home. The Board of Control for Cricket in India (BCCI) has already announced its 15-member team for the World Cup. Now BCCI has also announced its team for the series against Australia. Rest to Rohit-Kohli and Pandya. BCCI Selection Committee rested captain Rohit Sharma, Virat Kohli, spinner Kuldeep Yadav and all-rounder Hardik Pandya in the first 2 matches of the Australian series. Is. KL Rahul has been given command in his place. While Jadeja has been made the vice-captain. Also, experienced off-spinner Ravichandran Ashwin, Washington Sundar and fast bowler Prasidh Krishna have returned to the Indian team. Indian team for the first two ODIs of the series: KL Rahul (captain, wicketkeeper), Ravindra Jadeja (vice-captain), Ruturaj Gaikwad, Shubman Gill, Shreyas Iyer, Suryakumar Yadav, Tilak Verma, Ishan Kishan (wicketkeeper), Shardul Thakur, Washington Sundar, Ravichandran Ashwin, Jasprit Bumrah, Mohammed Shami, Mohammed Siraj and Prasidh Krishna.Squad for the 3rd &amp; final ODI:Rohit Sharma ( C), Hardik Pandya, (Vice-captain), Shubman Gill, Virat Kohli, Shreyas Iyer, Suryakumar Yadav, KL Rahul (wicketkeeper), Ishan Kishan (wicketkeeper), Ravindra Jadeja, Shardul Thakur, Axar Patel*, Washington Sundar, Kuldeep Yadav, R…Rohit-Kohli-Pandya will return in the third match. BCCI announced a 15-member team for the first two matches. Whereas a 17-member team has been declared for the last and third match. Rohit, Kohli, Pandya and Kuldeep have returned in this. Ruturaj Gaikwad and Tilak Verma also got a chance in the first two matches. But he has been left out of the last match. Ashwin and Sundar have been retained in the third match. Indian team for the third and last match of the series: Rohit Sharma (captain), Hardik Pandya (vice-captain), Virat Kohli, Shubman Gill, Shreyas Iyer, Suryakumar Yadav, KL Rahul (wicketkeeper India's first match against Australia on September 22. -Three-match series between Australia</t>
-  </si>
-  <si>
-    <t>sports</t>
-  </si>
-  <si>
-    <t>https://www.aajtak.in/sports/cricket/story/indian-squad-announced-for-australia-series-kl-rahul-captain-rohit-sharma-virat-kohli-india-vs-australia-odi-series-before-world-cup-2023-tspo-1781681-2023-09-18</t>
-  </si>
-  <si>
-    <t>It was introduced in Parliament 27 years ago... Know when the Women's Reservation Bill was stopped in the House.</t>
-  </si>
-  <si>
-    <t>There is news of approval of the Women's Reservation Bill in the important cabinet meeting during the special session of the Parliament. There was a lot of discussion about this bill. It is expected that the Women's Reservation Bill, pending for almost 27 years, will now again come on the table of Parliament. The last time some meaningful step was taken on this issue was in 2010, when the Rajya Sabha passed the bill amid uproar and marshals took some MPs out. Who had opposed 33 percent reservation for women. However, this bill was canceled because it could not be passed by the Lok Sabha. There was discussion about the introduction of the bill in a special session of the Parliament. The discussion on the Women's Reservation Bill has again gained momentum because there were already speculations that the bill would be introduced in a special session of the Parliament. Women's Reservation Bill is likely to be introduced in. On the 12th of this September, it has been 27 years since the Women's Reservation Bill was tabled in Parliament for the first time in 1996. At that time the government was of HD Deve Gowda. He was the PM and the Women's Reservation Bill had to face opposition. In the year 2017, Sonia Gandhi had written a letter to PM Modi. After 1996, the Women's Reservation Bill was tabled several times and every time it faced opposition. Two years before the 2019 Lok Sabha elections, i.e. in 2017, Congress President Sonia Gandhi had written a letter to PM Modi regarding this. The Women's Reservation Bill has not been introduced in the Lok Sabha even after being passed by the Rajya Sabha in 2010. For this reason, this bill is still hanging in the balance. How many times has the bill been stopped in the House? From the time it was tabled in 1996 till it was passed by the Rajya Sabha in 2010, the Women's Reservation Bill was rejected by the House several times. Its series starts from 12 September 1996. The bill was tabled, but could not be passed due to opposition, then the bill was tabled in the Vajpayee government, but it did not work out that year also. Similarly, in 1999, 2003, 2004 and 2009, an atmosphere could not be created in favor of the bill, hence this bill could not be passed. 12 September 1996 - The Women's Reservation Bill was introduced for the first time in the Parliament by the HD Deve Gowda government as the 81st Constitution Amendment Bill. Presented. Only after this the Deve Gowda government came into minority and the 11th Lok Sabha was dissolved. The bill was sent to the Joint Parliamentary Committee headed by Communist Party of India MP Geeta Mukherjee. This committee presented its report to the Lok Sabha on 9 December 1996. 26 June 1998 - The NDA government led by Atal Bihari Vajpayee passed the Women's Reservation Bill as the 84th Constitutional Amendment Bill in the 12th Lok Sabha.</t>
-  </si>
-  <si>
-    <t>https://www.aajtak.in/india/news/story/central-cabinet-approves-women-reservation-bill-33-percent-reservation-is-implemented-ntc-1781919-2023-09-18</t>
-  </si>
-  <si>
-    <t>Proceedings will begin in the new Parliament House from today, PM Modi will take a copy of the Constitution, know the complete program</t>
-  </si>
-  <si>
-    <t>The country's parliamentary proceedings will take place in the new Parliament from today. From today, the day of Ganesh Chaturthi, this new building is also to be dedicated to Shri Ganesh. Actually, these days a five-day special session of Parliament is going on. The first day of this session took place yesterday in the old Parliament House, while from the second day the proceedings will be held from the new building. The complete schedule of this special day has also been revealed. First of all, there will be a photo session tomorrow at 9.30 am in front of the Central Hall of the Old Parliament House. After this, a special program will start from 11 am in the Central Hall of the New Parliament. In this, the historical legacy of the Parliament will also be mentioned and a pledge will be taken to make India a developed country by 2047. So many leaders will speak in the new Parliament.</t>
-  </si>
-  <si>
-    <t>https://www.aajtak.in/india/news/story/proceedings-will-begin-in-the-new-parliament-house-from-today-know-the-complete-program-ntc-1781966-2023-09-18</t>
-  </si>
-  <si>
-    <t>VIDEO: Boy made 'Khatiya Car' from Jugaad, people are surprised to see its features and speed</t>
-  </si>
-  <si>
-    <t>A boy from Ashoknagar district of Madhya Pradesh is in the headlines. Its name is Pawan Ojha. It is being praised a lot on social media. People are surprised to see its jugaad. Everyone is praising it. Even before this he had made many things. This young man has built a car. 5 to 6 people can sit in it. He has kept complete focus on farmers while making the car. Pawan Ojha is a resident of Semarkhedi village, 15 kilometers away from Ashoknagar. At the age of about 21, this boy has made a car from a cot. This is named 'Khatiya Car'. When this car was initially made, petrol was to be used in it. But after seeing the prices of petrol, he changed his mind. After this he fitted the battery in it. The matter does not end here. The special thing is that the battery will be charged with solar energy. There is an interesting story behind this also. Pawan says, 5 people can travel comfortably in this car. When I thought about the farmers while making the car, I got thinking. Ojha said, if a farmer goes to the field, he will charge the battery before leaving. But the farmer will not be able to return if the battery is discharged. There is often no light in the village. Therefore, the Khatiya car was converted into a car running on solar energy. Which is now ready. What is special in this car? In response to this, Pawan says... Talking about the cost of the car, it costs only Rs 25 thousand. 5 to 6 people can sit comfortably in the car. If the farmer wants, he can comfortably carry 3 to 4 quintals of goods. The farmer can also sleep at night in this Khatiya car. The car also has a fan and music system. The car has a back gear, with this the 'Khatiya Car' can be moved backwards comfortably. It has a solar panel installed on the roof. The car is made from indigenous materials. According to this, maintenance will also not be special. Watch the video... 'Cycle converted into motorcycle'</t>
-  </si>
-  <si>
-    <t>madhya-pradesh</t>
-  </si>
-  <si>
-    <t>https://www.aajtak.in/madhya-pradesh/story/ashoknagar-district-boy-pawan-ojha-made-solar-powered-car-khatiya-vator-lclp-1781849-2023-09-18</t>
-  </si>
-  <si>
-    <t>'Lord Ram came in the dream and said- Chandrashekhar, save me...', another statement from the Education Minister of Bihar.</t>
-  </si>
-  <si>
-    <t>Education Minister Chandrashekhar Yadav in Bihar government is surrounded in controversies due to his statements. Now he has given another statement in this connection. In Supaul, the minister claimed, 'Lord Ram came in my dream and said that people are selling us in the market. You save me from being sold in the market'. Bihar Education Minister Chandrashekhar Yadav said that Lord Ram ate the false berries of Shabari. But today Shabari's son cannot go to the temple. This is sad. The President and the Chief Minister are stopped. The temple is washed with Ganga water. God had given the message by eating Shabari's lie. Yadav said that God was angry with the caste system. Would have thought that if we eat their (Shabari) berries then the world will start eating them. But, this did not happen. He (God) was left alone. He is shown an empty incense stick and is released. He is not imitated. 'Look, these people have sold us Chandrashekhar in the market'. The Education Minister had reached Rampur village of Pipra block on the occasion of the death anniversary of former teachers union president Lakshmi Yadav. After paying tribute to him, he told about his dream. Said that Lord Ram came in the dream and said look, these people have sold us Chandrashekhar in the market. Save us.</t>
-  </si>
-  <si>
-    <t>https://www.aajtak.in/india/bihar/story/bihar-education-minister-chandrashekhar-yadav-said-god-said-in-dream-to-save-from-being-sold-in-market-lclp-1781856-2023-09-18</t>
-  </si>
-  <si>
-    <t>Another student committed suicide in Kota, the minor student was from UP, 26th incident of the year.</t>
-  </si>
-  <si>
-    <t>Once again sad news has come out from Kota, which is called the 'Education Factory' of Rajasthan. A minor student resident of Mau town of Uttar Pradesh committed suicide on Monday, 18 September 2023. Despite all the efforts of the state government, administration and coaching institutes, the cases of student suicide in Kota are not showing any signs of stopping.</t>
-  </si>
-  <si>
-    <t>education</t>
-  </si>
-  <si>
-    <t>https://www.aajtak.in/education/news/story/one-more-minor-dies-by-suicide-in-kota-toll-of-suicides-of-students-has-reached-26-this-year-1781853-2023-09-18</t>
-  </si>
-  <si>
-    <t>Dead body of 26 year old doctor found in bathroom, had been selected for MD only a few days ago</t>
-  </si>
-  <si>
-    <t>https://www.aajtak.in/madhya-pradesh/story/female-mbbs-doctor-dead-body-found-hanging-in-bathroom-in-shahdol-lcln-1781785-2023-09-18</t>
-  </si>
-  <si>
-    <t>When will Jio AirFiber be launched and what will be its price, know everything about Jio's new service.</t>
-  </si>
-  <si>
-    <t>Reliance Jio had informed about the launch of Jio AirFiber in its AGM held this year. The company will launch its new wireless internet service on September 19, 2023, which will be named Jio AirFiber. Although the company had introduced this service last year itself, but its commercial launch has not been done yet. It has been designed to provide portable wireless internet service, which can be used anywhere in office and home. On this you will get speed up to 1.5Gbps. In Reliance AGM 2023, Reliance Chairman and MD Mukesh Ambani had told that AirFiber service will go live on the day of Ganesh Chaturthi. Jio AirFiber is a new way of providing wireless internet to the people. You might be thinking that wireless internet is available even on our phones, so what was the need for it. Actually, this is not an alternative to your phone but to broadband service where broadband connectivity is not available. AirFiber service is being started to provide internet in those areas. Also read - Jio launches laptop for Rs 16499, will get 11 inch display and many cool features. Users will get speed of more than 1Gbps on it, which is currently Not available on mobile. Jio says that Jio AirFiber is not only compact, but its setup is also very easy. You just have to plug it in and turn it on. Then your work will be done.</t>
+    <t>https://www.aajtak.in/india/maharashtra/story/bullet-tore-through-the-leg-and-tongue-and-got-stuck-in-the-throat-thane-strange-incident-of-firing-young-man-injured-kalyan-maharashtra-lclar-1793950-2023-10-06</t>
+  </si>
+  <si>
+    <t>Modi government gave ultimatum to expel diplomats, Trudeau took this step out of compulsion</t>
+  </si>
+  <si>
+    <t>Canada has sent most of its diplomats out of India. According to a report released on Friday, Canadian diplomats have left Delhi and gone to either Kuala Lumpur or Singapore. Amidst the ongoing tension between the two countries over the killing of Khalistani terrorist Hardeep Singh Nijjar, India on Thursday had said in a strict tone that the number of diplomats in both the countries should be equal. India had given Canada an ultimatum till October 10 to recall its 41 diplomats. Canadian television network CTV News has given information about Canadian diplomats leaving India. CTV News quoted sources as saying that the Indian government has asked Canada to reduce the number of its diplomats in India to the number of Indian diplomats in Canada. It is being said in the reports that India has removed 41 of its diplomats from Canada. But sources CTV News spoke to say that both countries want an equal number of diplomats in their respective countries. The report says, 'Most Canadian diplomats working in India will be sent to Delhi. Global Affairs Canada, the department that oversees Canada's diplomatic and consular relations, had earlier said that its diplomats in India were receiving threats. The department had said, 'Some diplomats Threats have been received on various social media platforms. We are assessing the safety of our employees in India. Therefore, out of an abundance of caution, we have decided to temporarily reduce the presence of employees in India.' Canada took this step at the request of India.</t>
+  </si>
+  <si>
+    <t>world</t>
+  </si>
+  <si>
+    <t>https://www.aajtak.in/world/story/india-canada-tension-canada-evacuated-its-diplomats-from-india-to-kualalumpur-or-singapore-tlifwr-1793745-2023-10-06</t>
+  </si>
+  <si>
+    <t>Yamuna Expressway Investment: Indian and foreign companies camped on the banks of Yamuna, a game worth billions... Know what is the matter?</t>
+  </si>
+  <si>
+    <t>Yamuna Expressway is once again in the news after the successful organization of Moto GP and speculations about F-1 coming back to India. This area, which has come on the international scene after the opening of Jewar International Airport, is now becoming a favorite destination for the big companies of the country and the world. Especially IT companies, telecom equipment manufacturing companies, data centers and real estate developers are planning to invest here on a large scale. Yamuna Expressway will become a tech hub because the future of Noida-Greater-Noida Expressway and Yamuna Expressway is a Being seen as a tech hub, experts believe that there is going to be a huge increase in the supply of jobs and houses here. Commercial and residential real estate here is sure to benefit from this. A major reason for the rapid development of Yamuna Expressway is its affordability compared to other locations in the country. In fact, creating infrastructure in Gurugram, Bengaluru, Hyderabad and Pune is very expensive at present. Due to connectivity and other facilities on Yamuna Expressway, Noida-Greater Noida Expressway belt is ready to give strong competition to other areas. Microsoft will invest heavily. HCL, Tech Mahindra and Microsoft are already present in this belt. Talking about Microsoft, the India Development Center of this American giant tech company is spread over 1.5 lakh square feet. Its next project is a 6.45 lakh square feet data center. Microsoft's investment will be around Rs 1800 crore which will create 3 thousand jobs. Phone and consumer durable companies Samsung, Dixon, LG, Oppo, Vivo, Lava and Optimus were early investors in this belt and now they are also busy expanding their business. . According to these companies, better infrastructure and Jewar Airport are the major reasons for expanding here. The ongoing expansion of these companies here can make Noida the next hub of mobile and consumer durable manufacturing.</t>
+  </si>
+  <si>
+    <t>business</t>
+  </si>
+  <si>
+    <t>https://www.aajtak.in/business/utility/story/yamuna-expressway-has-become-more-attractive-due-to-jewar-international-airport-and-moto-g-tuta-1793124-2023-10-06</t>
+  </si>
+  <si>
+    <t>OnePlus' cheapest tablet Pad Go launched, price is less than 20 thousand, know the features</t>
+  </si>
+  <si>
+    <t>OnePlus has finally launched its affordable tablet. This is the second tablet of the brand. The company has launched OnePlus Pad Go in India in both LTE and Wi-Fi variants. The first phone of the brand is OnePlus Pad, which the company launched in February. The company has launched OnePlus Pad Go in a budget of Rs 20 thousand. It has a large 11.35-inch screen. The device works on an octacore processor. It has 8000mAh battery and 33W fast charging. Let us know the price and other features of this tablet. The company has launched this device in three configurations. The price of its 8GB RAM + 128GB storage variant is Rs 19,999. This price is for Wi-Fi variant. Whereas its LTE variant will come for Rs 21,999. In this also you will get 8GB RAM + 128GB storage. Whereas the Wi-Fi variant with 8GB RAM + 256GB storage comes for Rs 23,999. Also read- Solar Red edition of OnePlus 11R 5G launched, will get 18GB RAM and 512GB storage, know the price.</t>
   </si>
   <si>
     <t>technology</t>
   </si>
   <si>
-    <t>https://www.aajtak.in/technology/tech-news/story/jio-airfiber-price-in-india-jio-airfiber-launch-date-all-details-ttec-1779918-2023-09-18</t>
-  </si>
-  <si>
-    <t>When the national anthem was played twice in the Lok Sabha, opposition leaders raised objection, was the Speaker insulted? Know the tradition</t>
-  </si>
-  <si>
-    <t>The special session of Parliament has started from today. In such a situation, a situation of protest arose in the Lok Sabha today when the national anthem was played before the scheduled time. Since the national anthem was played at the wrong time, it was stopped before its completion. Opposition MPs protested against this. In fact, it was not 11 o'clock at that time nor was Lok Sabha Speaker Om Birla sitting on his seat. With this, the national anthem started even before the proceedings of the House began and all the MPs present in the House at that time including Prime Minister Narendra Modi and Sonia Gandhi stood up in respect. But since the national anthem was played by mistake, it was stopped. Controversy arose over this. Opposition MPs expressed their protest. Opposition parties protested against the sudden stopping of the national anthem in the Lok Sabha on Monday, after which Speaker Om Birla had to intervene. The Speaker, while pacifying the agitated opposition members, said that sometimes technical glitches occur.</t>
-  </si>
-  <si>
-    <t>https://www.aajtak.in/india/news/story/when-the-national-anthem-was-played-twice-in-parliament-opposition-leaders-raised-objection-ntc-1781751-2023-09-18</t>
-  </si>
-  <si>
-    <t>Nehru's speech given on the night of 14-15 August 1947, which PM Modi mentioned</t>
-  </si>
-  <si>
-    <t>After 96 years, the old Parliament House was retired today. There will be no session here from now on. The special session of Parliament will be held in the new Parliament House from Tuesday. On the first day of the special session, Prime Minister Narendra Modi delivered a speech in the House. During this, he also mentioned the first Prime Minister Jawaharlal Nehru. He said, 'This is the House where no one can forget the echo of Pandit Nehru's Stroke of Midnight.' The speech of Nehru that Prime Minister Modi mentioned here was actually given by him on the night of 14 and 15 August 1947. Was. His speech is known as 'Tryst with Destiny'. Jawaharlal Nehru, who became the first Prime Minister of independent India, gave this speech in the Constituent Assembly. It is considered one of the most powerful speeches of the 20th century. 'India will rise with a new dawn' We had promised to meet destiny. And now the time has come for us to keep that promise. Not completely. But to a very limited extent.''Tonight at twelve o'clock the whole world will be sleeping, then India will wake up with a new dawn of life and freedom. There comes a moment, which comes rarely in history, when we pass from the old to the new, when an era ends and when the long suppressed soul of a nation finds expression. It is a coincidence that on this auspicious occasion we are taking a pledge to dedicate ourselves to the service of India and its people and above all to serve the entire humanity. “Right at the beginning of history, India started her endless quest. Had given. And countless centuries are filled with his efforts, his successes and failures. For better or worse, India has never ignored that quest or forgotten the ideals that gave it strength. Today we are unfortunately ending an era and India is reinventing itself. The achievement we are celebrating today is just a step towards opening up new opportunities. Even greater victories and achievements await us. Are we courageous and wise enough to grasp this opportunity and accept the challenge of the future? 'Now the future is ours' Freedom and power bring responsibility. The responsibility rests on this Assembly, which is the sovereign body representing the people of India. Before the birth of independence, we have endured all the pains of delivery. Some pain is still there. Nevertheless, the past is past and the future is now beckoning us.''That future is not one of rest, but of continued effort to fulfill the pledges we have often made and which Today we will take it. Service to India means those millions of people</t>
-  </si>
-  <si>
-    <t>explained</t>
-  </si>
-  <si>
-    <t>https://www.aajtak.in/explained/story/parliament-special-session-pm-narendra-modi-jawahar-lal-nehru-stroke-of-midnight-independence-day-speech-tryst-with-destiny-full-text-ntc-pryd-1781791-2023-09-18</t>
-  </si>
-  <si>
-    <t>Snake venom will heal wounds and also protect against infection, IIT scientists achieve great success</t>
-  </si>
-  <si>
-    <t>https://www.aajtak.in/education/story/snake-venom-will-heal-wounds-and-also-protect-against-infection-iit-jodhpurs-research-1781887-2023-09-18</t>
-  </si>
-  <si>
-    <t>Sister-in-law put red chilli in sister-in-law's private parts and burnt her at various places with polythene, two arrested</t>
-  </si>
-  <si>
-    <t>A surprising case of domestic dispute has come to light from Jodhpur, Rajasthan. Where sister-in-law and sister-in-law became mortal enemies. To teach sister-in-law a lesson, sister-in-law put green and red chilli powder in her private parts. Not only this, she also stained sister-in-law's body at various places with burning polythene. The victim lodged a complaint about this incident in the police station. Is. The police have registered a case against the accused sister-in-law and her son under sections of gang rape. On this matter, Boranada police station officer Devichand Dhaka said that on Monday the accused sister-in-law was arrested and presented in the court. From where he was sent to jail and his minor son was sent to a juvenile home. Sister-in-law put red chilli in sister-in-law's private part.</t>
-  </si>
-  <si>
-    <t>rajasthan</t>
-  </si>
-  <si>
-    <t>https://www.aajtak.in/rajasthan/story/jethani-put-red-chilli-in-devrani-private-part-police-registered-a-case-of-gangrape-two-arrested-jodhpur-rajasthan-lclar-1781894-2023-09-18</t>
-  </si>
-  <si>
-    <t>'Jawaan' made huge earnings in the second weekend, crossed Rs 800 crore, but could not break this record of 'Gadar 2'</t>
-  </si>
-  <si>
-    <t>Superstar Shahrukh Khan is continuously giving happiness to cinema lovers this year. At the beginning of the year, he delivered Bollywood's biggest film 'Pathan'. Now Shahrukh is ready to leave behind 'Pathan' with his new film 'Jawaan'. His film, released in the first week of September, is continuously earning huge profits. 'Jawaan' had collected a net collection of Rs 390 crore from India alone in the first week. Whereas its worldwide gross collection had reached very close to 700 crores. In the second weekend, Shahrukh's film again got a big jump and once again made solid earnings in 3 days. 'Jawaan', which has become the second biggest Indian film of 2023 in the very first week, has rapidly moved towards the record of 'Pathan' in the new weekend. Shahrukh's film earned very well on its second Sunday, but then Also could not touch the record of 'Gadar 2'. Let us tell you what wonders Shahrukh's film did at the box office in the second weekend and which records it missed... The second Sunday of 'Jawaan' brought huge earnings. On the second Friday, Shahrukh's film had made a net collection of Rs 19 crore. But Saturday brought a solid jump of 65% for the film and the film earned around Rs 32 crore on the 10th day. Now trade reports suggest that 'Jawaan' has earned more on Sunday than on Saturday. On its second Sunday, the film has collected between Rs 35-37 crores. In the second weekend, 'Jawaan' has collected more than Rs 86 crore nett in India. Shahrukh's film maintained its dominance at the box office for the second consecutive weekend.</t>
+    <t>https://www.aajtak.in/technology/tech-news/story/oneplus-pad-go-price-in-india-launch-with-8000mah-battery-specifications-sale-ttec-1793763-2023-10-06</t>
+  </si>
+  <si>
+    <t>Prayagraj: Yogi government's big plan before Mahakumbh, preparations to build 'Dwadash Madhav' circuit, know complete details</t>
+  </si>
+  <si>
+    <t>After Ram, Krishna and Buddha circuits, now there are preparations to build 'Dwadash Madhav' circuit in UP before Mahakumbh 2025. Under this, the 'Dwadash Madhav' temples of Prayag will be rejuvenated. UP CM Yogi Adityanath has approved the presentation about 'Dwadash Madhav' temples of mythological importance in the meeting with officials. In this, detailed plans have been made for many temples of Prayagraj after Ayodhya, Kashi, Mathura. According to beliefs, the sins of many births are erased by circumambulating 'Dwadash Madhav'. To promote religious and spiritual tourism in Uttar Pradesh, 'Dwadash Madhav' temples will be spruced up before Mahakumbh. Besides, work will also start on the plan of 125 km long 'Dwadash Madhav' circuit. In the meeting, UP CM directed that the development plans and projects of Kashi, Mathura, Ayodhya, Naimisharanya, Chitrakoot, Gorakhpur, Vindhyachal and Prayagraj should be expedited. . On the other hand, the construction work of Ram temple in Ayodhya is going on at a fast pace.</t>
+  </si>
+  <si>
+    <t>https://www.aajtak.in/uttar-pradesh/story/prayagraj-mahakumbh-yogi-government-big-plan-build-dwadash-madhav-circuit-know-details-ayodhya-deepotsav-lclam-1793938-2023-10-06</t>
+  </si>
+  <si>
+    <t>Had to make necklace from this 'disgusting' thing, woman caught at airport...</t>
+  </si>
+  <si>
+    <t>Whether a person is strange or not, he definitely comes into limelight by adopting strange hobbies to appear different. Now just look at a woman from Minnesota, America. Woman stuck at customs at airport due to giraffe feces. Actually the woman wanted to use the giraffe's feces to make a necklace. She brought giraffe feces in a box from Kenya to make a necklace, but was targeted by customs at the airport. Currently, the container of feces has been confiscated by the officers. US Customs and Border Protection said in a statement that when the woman's luggage was inspected after arriving at Minneapolis-Saint Paul Airport in Minnesota on September 29, Also claimed a small box. According to the statement, the officers engaged in security check were surprised when after opening the box, they found dried giraffe feces inside.</t>
+  </si>
+  <si>
+    <t>trending</t>
+  </si>
+  <si>
+    <t>https://www.aajtak.in/trending/story/box-of-giraffe-poo-seized-at-minnesota-airport-after-woman-wanted-to-use-it-to-make-a-necklace-tstb-1793703-2023-10-06</t>
+  </si>
+  <si>
+    <t>Sushma Group tightens grip on rising commercial real estate demand</t>
+  </si>
+  <si>
+    <t>Punjab. The Indian commercial real estate sector is experiencing significant growth beyond the metropolitan areas. Tier 2 and Tier 3 cities have emerged as hubs of commercial growth due to increased infrastructure development and better connectivity. The government's focus on infrastructure development has created employment opportunities. With the rise of digitalization and e-commerce, the need for commercial spaces has increased in Tier 2 and 3 cities. Local companies and retail have also benefited from this change, giving a major boost to the commercial real estate sector. Better roads, trains and new airports have increased connectivity. This has revolutionized office infrastructure development in Tier 2 cities. Apart from the demand for office space, there is an increase in retail consumption in Tier 2 cities. Rising incomes, "work from home" trend and higher incomes have increased the purchasing power of residents. Leading national and international retail brands are taking advantage of this by targeting Tier 2 cities, making retail spaces in these areas ripe for growth. The Tricity region, including the outskirts of Chandigarh in Punjab, North India, including Mohali and Panchkula, Progress has been seen. Having easy access to major highways and commercial hubs, the tricity has attracted sharp growth in rental rates and residential real estate returns. The increase in residential population and increase in infrastructure development has naturally driven the demand for commercial development.</t>
+  </si>
+  <si>
+    <t>impact-feature</t>
+  </si>
+  <si>
+    <t>https://www.aajtak.in/impact-feature/story/sushma-group-tightens-grip-on-rising-commercial-real-estate-demand-1793480-2023-10-06</t>
+  </si>
+  <si>
+    <t>Highway Man of India: After Prime Minister Modi, now biopic will be made on Nitin Gadkari</t>
+  </si>
+  <si>
+    <t>The trend of biopic is going on in films. Films are being made on many famous personalities from Bollywood to South. A new biopic was also announced on Friday and it is getting a lot of discussion on social media. The reason for this discussion is that this biopic is based on the life of one of the most popular leaders of the country.</t>
   </si>
   <si>
     <t>entertainment</t>
   </si>
   <si>
-    <t>https://www.aajtak.in/entertainment/bollywood-news/story/jawan-box-office-collection-crosses-800-crores-globally-scores-huge-sunday-but-could-not-beat-gadar-2-record-tmovs-1781361-2023-09-18</t>
-  </si>
-  <si>
-    <t>TV Show Spoiler Alert: Malti Devi's years old secret revealed in front of Anupama, Akshara will become bride for the third time!</t>
-  </si>
-  <si>
-    <t>In the world of television serials, a common man creates his own small world. Therefore, it is not acceptable for the viewer of a TV show to miss any episode. After watching the latest episode, they are curious to know what new drama will be seen in the show in the coming days. Let us increase your excitement a little more. Let us know what big twist is going to come in your favorite show this week. What is the truth of Malti Devi? The world is progressing day by day. But the Shah family takes a step forward. On the other hand, a new trouble knocks into their lives. On one hand, Anupama is gradually trying to know the truth about Malti Devi. On the other hand, Baa faints while cooking in the kitchen. Now at this age, when Baa becomes unconscious, Bapuji also gets tensed. If Ba-Bapu ji is upset, then how can their children remain happy? A post shared by StarPlus (@starplus) There will be a twist in the life of Akshara-Abhimanyu in the show before the marriage of Akshara-Abhimanyu in 'Yeh Rishta Kya Kehlata Hai'. Many new dramas are going to be seen. Till now we have seen that Akshara-Abhimanyu's son Abir is trying to unite the two. Both will agree to marriage, but then a villain will enter their lives and then they will get upset and refuse the marriage.</t>
-  </si>
-  <si>
-    <t>https://www.aajtak.in/entertainment/television/story/yeh-rishta-kya-kehlata-hai-akshara-aka-pranali-rathod-will-marry-third-time-rupali-ganguly-anupama-spoiler-tv-show-tmovb-1781204-2023-09-18</t>
-  </si>
-  <si>
-    <t>Film wrap: Hit Jawan could not break Gadar 2's record, Vijay sweats on intimate scenes with Kareena</t>
-  </si>
-  <si>
-    <t>What special happened on the day of entertainment on Monday, let us tell you in the film wrap. Shahrukh Khan's magic is wreaking havoc in theatres. His second film of the year 'Jawaan' is continuously creating an atmosphere in the audience. After making record breaking earnings in just one week, 'Jawaan' has made excellent earnings in the second weekend too. But despite such huge earnings, Shahrukh's film could not break the record of 'Gadar 2'. Romantic scene with the mother of 2 children, the actor was left in a sweat, said - no handle... Vijay in Shahnaz Gill's show Desi Vibes Shared the experience of working with Kareena Kapoor. Vijay praised the work of the actress and told how nervous he was when he was shooting intimate scenes with Kareena. 'Jawaan' made huge earnings in the second weekend, crossed 800 crores, but 'Gadar' could not break the mark. This record of 2'Superstar Shahrukh Khan is continuously giving happiness to cinema lovers this year. At the beginning of the year, he delivered Bollywood's biggest film 'Pathan'. Now Shahrukh is ready to leave behind 'Pathan' with his new film 'Jawaan'. His film, released in the first week of September, is continuously earning huge profits. There will be a match between Raghav and Parineeti before the marriage, who will win Chopra vs Chadha?</t>
-  </si>
-  <si>
-    <t>https://www.aajtak.in/entertainment/news/story/jawan-box-office-collection-unable-to-break-gadar-2-record-kareena-kapoor-vijay-varma-intimate-scene-tmova-1781865-2023-09-18</t>
-  </si>
-  <si>
-    <t>The budget got spoiled while shooting 'Jawaan', Shahrukh took over the film, director Atlee talked about the sequel...</t>
-  </si>
-  <si>
-    <t>Jaawan is breaking all the earning records at the box office. The film has done a worldwide business of more than Rs 700 crore. The entire team is jumping with joy due to its success. At the same time, fans have hoped that the sequel of Jawan will also come soon. Recently, during an event, Director Atlee gave a hint about this. He also told that when the film was being made, it had exceeded its fixed budget. But Shahrukh Khan compensated it by showing generosity. Made in the budget of Rs. 300 crores, the film Jawaanjawan has been made in the budget of Rs. 300 crores. Atlee said that initially everyone was very worried about this. There was a fear in everyone's mind about such a big budget film whether it would work or not. But everyone failed in front of Shahrukh's courage. Atlee said- I had given the narration of the film on a zoom call during the Corona period. I knew that the theatrical footfall was continuously falling at that time. People were not ready to come to the theater to watch even a Rs 30-40 crore film. I know this because I am also a producer. But Sir (Shah Rukh Khan) gave it the green signal and passed the budget of Rs 300 crore. Atlee also said that but we did not stop even at Rs 300 crore. While shooting, our budget went beyond this. We have delivered a blockbuster in three days, and now we are flying in the air. Along with this, Atlee thanked Red Chillies and said that they did not stop due to increase in the cast, nor did they ask for cutting. Working with this team is like working with a family.</t>
-  </si>
-  <si>
-    <t>https://www.aajtak.in/entertainment/bollywood-news/story/jawan-sequel-shah-rukh-khan-vikram-rathore-spin-off-300-crore-budget-ott-release-atlee-clarifies-tmova-1781007-2023-09-17</t>
-  </si>
-  <si>
-    <t>Kanpur Babu Singh Suicide Case: BJP leader had grabbed land worth Rs 6 crore, businessman who bought it arrested</t>
-  </si>
-  <si>
-    <t>A farmer had committed suicide nine days ago in Kanpur, Uttar Pradesh. Police have arrested a businessman in this case. It is alleged that the BJP leader had grabbed land worth six crores from a farmer and sold it to a businessman. The BJP leader had given a fake check of Rs 6 crore 20 lakh to the farmer in exchange for land. Then it was taken back. Frustrated with this, the farmer had taken this step. Actually, in Kanpur, BJP leader Priyaranjan Ashu Diwakar had cheated and taken land worth Rs 6 crore from farmer Babu Singh Kushwaha. When he realized that he had been cheated, he committed suicide. In this case, the police took action after nine days and arrested businessman Rahul Jain, who bought the land, from Delhi. A case was registered against six people including BJP leader. In this case, Samajwadi Party National President Akhilesh Yadav sent a team of 12 MLAs to Kisan Babu. Sent to Singh's house. He met the farmer's family and demanded the arrest of the accused from the police administration. In this case, the police has not yet been able to arrest the main accused BJP leader Diwakar. Whereas the farmer's wife had filed an FIR against six people including BJP leader Diwakar for grabbing land and forcing him to commit suicide.</t>
-  </si>
-  <si>
-    <t>uttar-pradesh</t>
-  </si>
-  <si>
-    <t>https://www.aajtak.in/uttar-pradesh/story/land-dealer-arrested-from-delhi-bjp-leader-grabbed-sold-farmer-land-worth-6-crores-in-kanpur-lclag-1781891-2023-09-18</t>
-  </si>
-  <si>
-    <t>Husband was serving sentence for murder of wife, came on parole and killed son also</t>
-  </si>
-  <si>
-    <t>The Crime Branch team in Kanpur, Uttar Pradesh has revealed a surprising murder case. The man who was on parole in the case of murder of his wife, along with his second wife, killed his own son. After this he tried to mislead the police by telling that it was a case of heart attack. In this case, Kanpur Crime Branch has solved the case after 15 months on the basis of the report. The police have arrested the stepmother and brother of the deceased. The accused father is still absconding. Actually, the matter is of Bharthana police station of Etawah. In 2022, Rajesh Yadav's son Sunny Yadav died under suspicious circumstances. He had cited heart attack as the cause of his son's death. However, the son's maternal grandparents had lodged an FIR against him in the police station, suspecting murder. He told the police that in 1999, Sunny's mother Archana was also murdered by her husband. The first wife was murdered for opposing the marriage. Sunny's maternal grandparents told that their son-in-law Rajesh was having a love affair with a woman named Rosie. Was. After some time he married her. When Sunny's mother protested against this information, Rajesh killed her. After this the court sentenced him to life imprisonment. After this Sunny started living with him. But, Rajesh, who was paroled, called her in June 2022 and said that your grandparents are missing you, do not meet me. But, love your grandparents. He still considers you his grandson.</t>
-  </si>
-  <si>
-    <t>https://www.aajtak.in/uttar-pradesh/story/father-on-parole-murdered-son-with-second-wife-serving-life-imprisonment-for-murder-of-wife-in-itawah-lclag-1781813-2023-09-18</t>
-  </si>
-  <si>
-    <t>In a land dispute, the son killed his father and stepmother with an axe, the accused arrested</t>
-  </si>
-  <si>
-    <t>In Auraiya, Uttar Pradesh, a man killed his parents by cutting them with an axe. As soon as the information about the incident was received, the police reached the spot, took possession of both the bodies, sent them for post-mortem and started investigating the case. The police have arrested the accused. The accused told the police that he had hidden the ax on the night of 14th September and on the morning of 15th he brutally murdered his parents over a land dispute. The police seized the ax found near the dead body and arrested the accused. The police had formed four teams to nab the accused. Besides, a reward of Rs 25 thousand was also kept.</t>
-  </si>
-  <si>
-    <t>https://www.aajtak.in/uttar-pradesh/story/property-dispute-son-killed-father-step-mother-police-arrested-auraiya-uttar-pradesh-lclar-1781868-2023-09-18</t>
+    <t>https://www.aajtak.in/entertainment/news/story/after-pm-modi-biopic-on-union-minister-nitin-gadkari-titled-highway-man-of-india-tmovs-1793936-2023-10-06</t>
+  </si>
+  <si>
+    <t>Nobel Prize 2023: Jailed Nargis Mohammadi received the Nobel Peace Prize, the Iranian government had arrested her 13 times</t>
+  </si>
+  <si>
+    <t>Human rights activist Nargis Mohammadi, who raised her voice against atrocities against women of Iran, has been awarded the Nobel Peace Prize. She fought a long battle for promoting human rights in Iran as well as for freedom for all. For this, Nargis has been honored with the Nobel Peace Prize for the year 2023. Nargis Mohammadi is the name of that brave woman, whom the government of Iran She was arrested 13 times, but her high spirits did not diminish. Not only this, Nargis spent 31 years in jail. He was sentenced to 154 lashes. When Nargis Mohammadi was given this highest award, she was still in jail. According to the Nobel Prize Committee, Nargis Mohammadi had to pay a heavy price for her struggle. According to the Front Line Defenders rights organization, the Iranian human rights activist is in Evin prison of Tehran. I am serving many sentences. Nargis Mohammadi is also accused of spreading misleading propaganda against the Iranian regime. Nargis Mohammadi's activism began in the 1990s, when, as a physics student, she started advocating for equality and women's rights. The Nobel Committee said that Nargis Mohammed has consistently opposed discrimination and oppression. Nargis advocated the struggle for the right to live a dignified life. This is such an issue in Iran, for which one often has to face harassment, jail sentence, torture and even death in this country.</t>
+  </si>
+  <si>
+    <t>https://www.aajtak.in/world/story/iran-nargis-mohammadi-receives-nobel-peace-prize-raises-voice-against-atrocities-on-women-ntc-1793790-2023-10-06</t>
+  </si>
+  <si>
+    <t>'Sometimes underwear in the train, sometimes pistol in the hospital...', the history of JDU MLA Gopal Mandal's uproar</t>
+  </si>
+  <si>
+    <t>JDU MLA Gopal Mandal, who is in the headlines for his behaviour, is in the news this time for his bullying. He had reached Janata Dal United Office in Patna. Here the questions of the journalists were, 'MLA, why did you go to the hospital waving the pistol?' On this, the MLA's temper became so high that he lost his temper and started abusing. MLA Gopal Mandal started saying - 'Yes, we have (still) filed the charges, what should we show. What do you want to say... I keep a pistol. After this the question arose, 'What was the need to carry a pistol to a place like a hospital? Will the MLA wave with a pistol in his hand? 'Yes, yes... we will wave... are you guys our father?' It seemed as if this question had attacked the honor of the MLA. The MLA said angrily - 'Yes, yes... we will wave... are you our father... run...$$$''. The surprising thing is that at the time when the MLA was giving proof of his dominance at the gate of JDU office, at that time the head of the state Nitish Kumar was present inside the office. Pistol in hand, security guard and MLA in the hospital. In fact, recently, Gopalpur Assembly Area MLA Narendra Kumar Neeraj alias Gopal Mandal had reached Jawaharlal Nehru Medical College, Mayaganj with a pistol. Security guards were also with him. People were seen scared after seeing the revolver in the MLA's hand. After this, he went back from there along with his security guard with a pistol in his hand. This incident happened in the train in the year 2021, September. This form of MLA Gopal Mandal has not been seen for the first time. Earlier in the month of September 2021 also, he had shown his dominance. Then he was going from Patna to Delhi by Tejas train. During the journey, he did something that created an uproar. When the passengers in the train raised objection, the MLA's temper became high. Then it was alleged that MLA Saheb got into a fight and threatened to shoot. The MLA was roaming in the train in underwear.</t>
+  </si>
+  <si>
+    <t>https://www.aajtak.in/india/bihar/story/patna-jdu-mla-gopal-mandal-pistol-incident-abused-journalists-before-it-he-was-in-underwear-in-tejas-train-lclp-1793808-2023-10-06</t>
+  </si>
+  <si>
+    <t>Bajrang Punia, who entered Asiad without trial, got a big shock, did not even get bronze</t>
+  </si>
+  <si>
+    <t>Bajrang Punia Asian Games Results: Bajrang Punia, one of the biggest hopes of gold medal in the ongoing Asian Games in Hangzhou, has lost in the semi-final match. After his defeat, many people got angry on social media. Bajrang, the previous Asian Games champion, had not participated in any competitive match before participating in these games. Then in the bronze medal match, Bajrang was defeated by Japanese wrestler K. Yamaguchi defeated 10-0. That means Bajrang will return home without a medal. Bajrang Punia (Free Style 65kg) has lost 1-8 to former world champion Iranian wrestler Amouzad Khalili Rahman (AMOUZADKHALILI Rahman) in the semi-finals. Bajrang did not seem to be in any rhythm during the entire match. None of Bajrang's moves worked. He was continuously losing points one after the other. As a result, he was defeated. Bajrang was among the wrestlers who protested and sat on strike against outgoing WFI (Wrestling Federation of India) chief Brij Bhushan Sharan Singh. He was also criticized for including him in the Indian team for these Games without trials. Click for full coverage of Asian Games. Vishal Kaliraman had won the 65 kg trials, but he was kept standby in this category. His family and many Panchayats believed that Bajrang should not have got a chance in these sports without trials. Bajrang, the previous Asian Games champion, had not participated in any competitive match before participating in these games. He was trying to overcome his shortcoming in 'leg defence'. He got almost no benefit from 18 days of practice and training session in Kyrgyzstan. People were disappointed when Bajrang did not win the gold. As soon as Bajrang Punia came to play the semi-finals, all the fans felt that he would defeat the Iranian wrestler and go straight to the finals, but He lost. Some people even wrote on social media that this is why they wanted direct entry. Although there were many people who supported Bajrang. Look, he talks a lot and can't do anything in wrestling... He got a gold medal destroyed, it would have been better to send him to someone else!! @BajrangPunia https://t. co/Ltt5HUN3CW</t>
+  </si>
+  <si>
+    <t>https://www.aajtak.in/sports/news/story/bajrang-punia-who-entered-asian-asian-games-hangzhou-without-trial-got-big-shock-lost-in-semi-final-fans-got-angry-after-not-winning-gold-tspo-1793566-2023-10-06</t>
+  </si>
+  <si>
+    <t>Misssion Raniganj Review: Akshay Kumar's mission of entertainment, thrill and suspense becomes 'successful'</t>
+  </si>
+  <si>
+    <t>A meme about Akshay Kumar remains quite viral. Whatever event happens in any country, Akshay immediately takes the copyright of his film on it. Akshay Kumar's film 'Mission Raniganj' is also based on a Bharat rescue case. However, this story is not of today, but of the bravery of Jaswant Singh Gill, a coalmines officer in the 90s who came into the limelight by the name of Capsule Singh Gill. Here is the story: About 70 laborers get trapped due to a burst water pipe inside the coal mines located in Raniganj. In this entire episode, Mines Officer Jaswant Singh Gill, with his bravery and wisdom, rescues the trapped workers. Jaswant Gill became the hero of that time because of his wit. Akshay is coming to entertain you by turning this four-day incident into a film.</t>
+  </si>
+  <si>
+    <t>https://www.aajtak.in/entertainment/film-review/story/misssion-raniganj-review-read-how-akshay-kumar-and-his-actors-team-has-done-phenomenal-job-ntmov-1793819-2023-10-06</t>
+  </si>
+  <si>
+    <t>'Mission Raniganj' got cooler response than 'Selfie' in booking, will his new film become Akshay's biggest flop?</t>
+  </si>
+  <si>
+    <t>After the success of 'OMG 2', it seemed that the public is again excited to see Akshay Kumar on the big screen. Today Akshay's new film 'Mission Raniganj' is being released in theaters and the kind of response it is getting is not good at all. Akshay Kumar's films based on 'real life incidents' have been doing good business in theaters. . 'Mission Raniganj' is also based on a real incident. The story of the film is based on mining engineer Jaswant Singh Gill who saved the lives of 65 people trapped in a coal mine. Akshay is playing the character of the same Jaswant Singh Gill in 'Mission Raniganj'. But due to Akshay's stardom, from the beginning there was not the same fun atmosphere around this film as there is for his films. Now this film has reached the theatres, but its business on the first day does not seem to be very strong. Advance booking of 'Mission Raniganj' Advance booking for Akshay's film started this week. Reports say that even after a whole week has passed, only about 7 thousand tickets of 'Mission Raniganj' have been booked in the national chains. Whereas SACNILC's report shows that only a little more than 36 thousand tickets have been booked in advance for the film. The advance gross collection of 'Mission Raniganj' from this booking is less than Rs 1 crore.</t>
+  </si>
+  <si>
+    <t>https://www.aajtak.in/entertainment/bollywood-news/story/mission-raniganj-fails-to-impress-in-advance-booking-akshay-kumar-set-for-another-flop-show-tmovs-1793514-2023-10-06</t>
+  </si>
+  <si>
+    <t>Exclusive Interview: People call me a witch, I feel good to hear these words, said Rhea Chakraborty</t>
+  </si>
+  <si>
+    <t>Bollywood diva Rhea Chakraborty is currently seen as a gang leader in the reality show Roadies. The actress remains in the headlines for her personal and professional life. On Thursday, he participated in 'India Today Conclave 2023' and answered every question with frankness. For the first time after the death of Sushant Singh Rajput in 2020, Rhea gave her first frank interview on Sushant Rajput's suicide, nights spent in jail, social media trolling. How much life has changed. Talking to session moderator Rajdeep Sardesai, Rhea said that in the last three years His life has changed a lot. He said- When you interviewed me three years ago, I was not invited. Now I was invited. Life is a circle. Now I am talking to the media. Life is moving forward. The New Me is very different. Earlier, at the age of 31, I used to feel like an 81-year-old woman inside me. In difficult times, you can either become Devdas or move forward by taking the help of therapy. I took the help of therapy. The actress says that no one's opinion matters to her. The voice inside me said that everything would be fine. Every story has two beginnings. One is what we see and the other is what we cannot see. Was there really any role in Sushant Rajput's death? Talking about Sushant Singh Rajput's death, she said - When I see people's faces, some people Let's see from the perspective that I have done something. Or something is really wrong with me. I can read people's faces. I liked the name Chudail. It didn't make any difference to me. Who knows, I actually know black magic. People say in society that if a man drinks too much after marriage, then people say that all this happened because of the arrival of a woman. If her career declines, then people say that look, this has happened since the time she came. Why do people commit suicide in Hindi cinema? Riya says- People here do not understand mental health conditions. He was successful, but I don't know why his mental health was bad. Mental health was taken the wrong way. Even successful people can become depressed. I don't know why Sushant took his life. But we know what he went through. I don't want to talk about NCB and drugs. How did you spend your days in jail? Talking about jail, the actress said that jail is interesting because you get separated from the society. I have learned a lot in jail. I was under trial. I was not guilty. I learned how we keep running to the movies. But she is living in jail.</t>
+  </si>
+  <si>
+    <t>https://www.aajtak.in/entertainment/bollywood-news/story/exclusive-rhea-chakraborty-interview-sushant-singh-rajput-death-chudail-naagin-dance-bhaykhala-jail-ncb-drugs-troll-tmovb-1793232-2023-10-05</t>
+  </si>
+  <si>
+    <t>Kriti Sanon's mother couldn't believe it when she got the National Award, she got a prank call</t>
+  </si>
+  <si>
+    <t>Bollywood actress Kriti Sanon lives in the hearts of millions of people. The actress was awarded the National Award for the film 'Mimi'. This was the best moment of the actress's life. But do you know how Kriti Sanon reacted when she got a call from the Ministry for the National Award? Recently, Kriti told about this in India Today Conclave 2023 Mumbai.</t>
+  </si>
+  <si>
+    <t>https://www.aajtak.in/entertainment/bollywood-news/story/kriti-sanon-reveals-of-parents-on-national-award-winning-call-from-ministry-thought-it-was-a-prank-call-tmovk-1793358-2023-10-05</t>
   </si>
 </sst>
 </file>
@@ -627,242 +642,248 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>47</v>
+      </c>
+      <c r="B13" t="s">
+        <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C19" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B21" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C21" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/server/AajTak.xlsx
+++ b/server/AajTak.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26926"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Projects\SIH-2023\server\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ABFB591-3B79-431A-85D1-F6C9C5CF2B17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="74">
   <si>
     <t>Heading</t>
   </si>
@@ -28,227 +34,221 @@
     <t>URL</t>
   </si>
   <si>
-    <t>No house to live in, no food to fill the stomach... The family of the Ujjain rape accused is wandering from door to door loaded with luggage on an e-rickshaw.</t>
-  </si>
-  <si>
-    <t>Police has already arrested Bharat Soni, accused of raping a 12 year old girl in Ujjain, Madhya Pradesh. Yesterday, a bulldozer was also used on its illegal construction. The accused had occupied government land in Nanakheda area. He was living here with his parents, brother and sister-in-law for many years. Not only this, he had also built a temple in the illegal house. His house was demolished in the presence of heavy police force. After the demolition of the illegal house, his family is now forced to wander from door to door. Neither are they getting a place to live nor anything to eat. The accused's parents, sister-in-law and two innocent children are wandering here and there in an e-rickshaw. The parents are considering it as their mistake to give birth to such a child. 'Our only fault is that we gave birth to him'. The mother of the accused says, 'The government should help us, the person who had committed the crime is in police custody. What is our fault? Our only fault is that we gave birth to him. I want to meet the Chief Minister and express my views.'I can't say anything, I will do anything' The mother of the accused further said, "Our entire house is crying. I can't say anything. I will do anything. I am very worried. What mistake have we made that we are not getting a place to live? Any parent who gives birth to a child does not know that after 20 years the child will turn out to be like this.</t>
-  </si>
-  <si>
-    <t>madhya-pradesh</t>
-  </si>
-  <si>
-    <t>https://www.aajtak.in/madhya-pradesh/story/ujjain-rape-case-accused-family-not-getting-place-to-live-request-to-meet-shivraj-singh-chauhan-lclp-1793973-2023-10-06</t>
-  </si>
-  <si>
-    <t>Asian Games, Indian Hockey Team: Team India created history... won gold by defeating Japan, got ticket for Paris Olympics</t>
-  </si>
-  <si>
-    <t>The Indian hockey team has performed brilliantly in the Hangzhou Asian Games and won the gold medal. In the final match played on Friday (6 October), India defeated defending champion Japan 5-1. For India, captain Harmanpreet Singh scored the maximum two goals. Manpreet Singh, Abhishek and Amit Rohidas scored one goal each. The only goal for Japan was scored by Seren Tanaka. With this victory, the Indian hockey team has secured the ticket for next year's Paris Olympics. The Paris Olympics will be played from 26th July to 11th August. Golden Victory Alert: #HockeyHigh portrayed right by our #MenInBlue 🏒Team 🇮🇳 outshines 🇯🇵 5⃣-1⃣ and brings home🥇&amp; also a #ParisOlympics Quota 🥳What a match!!Great work guys💯 Keep shining 🏻 No goals could be scored by either team in the quarter. After a long wait, India managed to score a goal in the 25th minute of the game. Manpreet Singh scored this goal for India. India was leading 1-0 at halftime. Then in the third quarter, India scored two goals in a row. Captain Harmanpreet Singh scored on a penalty corner in the 32nd minute. Then four minutes later (36th minute) Amit Rohidas also scored a goal on the penalty corner. Click here to watch special coverage of Asian Games 2023. After this, India also scored two goals in the fourth quarter. In the first 48th minute, Abhishek scored a brilliant field goal. However, Seren Tanaka converted a penalty corner in the 51st minute to make the score 4-1. Then Harmanpreet scored an excellent goal from a penalty corner in the 59th minute to give India a spectacular 5-1 victory.</t>
-  </si>
-  <si>
-    <t>sports</t>
-  </si>
-  <si>
-    <t>https://www.aajtak.in/sports/news/story/asian-games-hanzhou-india-beat-japan-to-clinch-gold-medal-in-also-qualify-for-paris-olympics-hockey-tspo-1793850-2023-10-06</t>
-  </si>
-  <si>
-    <t>Tiger is still alive! 15 villages, 20 thousand people, 38 deaths in 7 years... The search for the man-eater continues in the forests of Pilibhit.</t>
-  </si>
-  <si>
-    <t>Mission Tiger: Nature provided settlements for humans and forests for animals. As long as both of them stay within their limits, everything remains fine. But as soon as any of them crosses their limits, fear spreads all around. Thousands of people living around Pilibhit Tiger Reserve are also living in similar fear these days. Police and administration also seem helpless. Let us tell you the horrifying story of this fear. Thousands of people are forced to live under the shadow of fear. Sometimes people climb trees out of fear. At some places the police and the village head use the mike to instruct people to move away. Somewhere, efforts are being made to control the situation with tranquilizer guns i.e. intoxicating pills. At some places, cage-like tractors have become the support of forest workers. And somewhere one of man's old friends i.e. elephants is supporting humans. And behind all this is the same Shay. Due to which the population of about 20 thousand people of 15 villages of Pilibhit district of Uttar Pradesh has become restless. The people living there have lost their sleep at night and peace during the day. Yes, that is the Tiger. The Tiger is out of control. People of these villages situated around Pilibhit Tiger Reserve are living under the shadow of fear these days. People can neither complete their work during the day nor go out of their homes at night. I don't know if someone is working in the field and a tiger snatches him away from behind. Yes, people's morale definitely increases after seeing the forest department employees. A crowd of spectators gathers. But then as soon as Operation Tiger is completed, there is silence in the entire area. For the last few days, the same game is going on continuously in different villages, but the tiger is not being controlled. Tiger's entry in the residential areas. Actually, these villages of Pilibhit are situated very close to the Pilibhit Tiger Reserve. Now call it the effect of the increasing population of tigers or the result of human interference in the tiger areas. For the last one month, tigers have started entering the residential areas in such a way that everyone from cattle to humans have started becoming prey to the tigers. In such a situation, disturbance is inevitable in human settlements. But before we tell you the truth about Operation Tiger of the Forest Department amid the chaos in different villages, let us quickly tell you the identities of those people who fell prey to tigers and died. 28 June 2023 Lalta Prasad, village Raniganj 16 August 2023 Ram Murti, village Raniganj 21 September 2023 Raghunath, village Mala Colony 26 September 2023 Totaram, village Jamunia Tigers have increased.</t>
-  </si>
-  <si>
-    <t>crime</t>
-  </si>
-  <si>
-    <t>https://www.aajtak.in/crime/big-crime/story/up-pilibhit-district-tiger-reserve-15-villages-panic-deaths-incidents-forest-department-operation-tiger-search-police-crime-pvzs-1793746-2023-10-06</t>
-  </si>
-  <si>
-    <t>'Satya Prakash's family was very poor and Premchand...', people's words on Deoria massacre</t>
-  </si>
-  <si>
-    <t>The people of the village are still in shock due to the massacre that took place on October 2 in Fatehpur village of Rudrapur police station area in Deoria, Uttar Pradesh. There is silence in the village. Premchand Yadav was murdered near Satya Prakash Dubey's house. After this, Premchand's supporters entered Satya Prakash's house and attacked six people present there. In this, five people including Satya Prakash, his wife, two daughters and a son were brutally murdered. The condition of 8 year old son Anmol remains critical. Police and Revenue Department teams are busy in their action. At the same time, the elder daughter of Satya Prakash Dubey, who was married two years ago, told that there used to be a fight with Premchand over a land dispute. Complaints were made several times. But, the police administration did not take any action. Due to this, members of our family were killed. 'He used to earn his living by doing labour'. Meanwhile, Param Yadav, who lives in the village, told that Satya Prakash's family was very poor. He earned his living by working as a labourer. Whereas Premchand Yadav was a noble person. He used to help everyone. 27 people are named in this murder case. In this, the police has also taken action against the people of Rajbhar community. Also read - 'The family was slaughtered like a goat...', said the victim of Deoria massacre after the action against the officers.</t>
-  </si>
-  <si>
-    <t>uttar-pradesh</t>
-  </si>
-  <si>
-    <t>https://www.aajtak.in/uttar-pradesh/story/deoria-murder-case-people-said-that-satya-prakash-family-was-very-poor-lclp-1793882-2023-10-06</t>
-  </si>
-  <si>
-    <t>What is the 'cruelty' on which Shikhar Dhawan got divorce from his wife Ayesha? Know- what the law says</t>
-  </si>
-  <si>
-    <t>Shikhar Dhawan and Ayesha Mukherjee are no longer husband and wife. The Family Court of Delhi has approved their divorce. The court accepted that because of Ayesha, Dhawan had to go through 'mental torture'. Family Court Judge Harish Kumar has also accepted all the allegations made by Dhawan against his wife Ayesha. The court said that Ayesha either did not oppose these allegations or failed to defend herself. Ayesha, who is 10 years older than Dhawan, is a kick boxer. Shikhar Dhawan married Ayesha in the year 2012. In September 2021, Ayesha had informed about her separation from Dhawan. Finally, in March this year, Shikhar Dhawan filed a divorce case on the grounds of 'cruelty'. 'Cruelty' has come into discussion due to the divorce of Dhawan and Ayesha. In such a situation, do you know what is the meaning of cruelty? And what does the law say on this? What is cruelty? - Both the Hindu Marriage Act of 1955 and the Special Marriage Act of 1954 mention 'cruelty'. The Hindu Marriage Act provides for marriage and divorce of people following the Hindu religion. Whereas, the Special Marriage Act applies to people following two different religions. - There is a provision for 'Divorce' in Section 13 of the Hindu Marriage Act. Some grounds for divorce are given in it. One of these 'cruelty' has also been considered a ground for divorce. - Cruelty is a strong ground for divorce, but there is no mention in the law as to what will be considered cruelty? How will cruelty be proved? - Its definition in the law. So it is not given, but generally cruelty is considered when there is a threat to life, health, body or mental peace. In such a situation it is put under the ambit of cruelty. - What would be cruelty in any case? Only the court will take its final decision. The court has explained about cruelty in its various decisions. - A husband or wife can present physical or mental torture as cruelty. But for this it will also have to be proved. If those seeking divorce on the grounds of cruelty are unable to prove it, then their divorce application may be rejected. In 1998, the Andhra Pradesh High Court had rejected the divorce application because the husband could not prove cruelty against his wife. It may seem like cruelty, but... - After marriage, the husband or wife may feel That their partner is being cruel, but during the divorce application, evidence and circumstances also have to be stated. So that the court can accept that cruelty has taken place. - In 1999, in the case of S. Hanumantha Rao vs. S. Ramani, the Supreme Court had given an important decision on mental cruelty. husband in this case</t>
-  </si>
-  <si>
-    <t>explained</t>
-  </si>
-  <si>
-    <t>https://www.aajtak.in/explained/story/shikhar-dhawan-wife-aesha-mukerji-divorce-what-is-cruelty-in-marriage-hindu-marriage-act-pryd-1793794-2023-10-06</t>
-  </si>
-  <si>
-    <t>The bullet pierced the throat, claws and tongue, a strange firing incident from Maharashtra.</t>
-  </si>
-  <si>
-    <t>A shocking incident has come to light from the welfare of Maharashtra. Where it bit the claws and tongue of a young man and got stuck in his throat. The young man has been admitted to the hospital in critical condition. At present his condition is said to be out of danger. Police have registered the case and started investigation. This incident happened in Mohane area of ​​Titwala. It is being told that Sushilmahanto was sitting with four-five of his friends. During the conversation, a friend shot Sushil. Sushil tried to save himself and the bullet pierced his hand and tongue and got stuck in his throat through his mouth.</t>
-  </si>
-  <si>
-    <t>india</t>
-  </si>
-  <si>
-    <t>https://www.aajtak.in/india/maharashtra/story/bullet-tore-through-the-leg-and-tongue-and-got-stuck-in-the-throat-thane-strange-incident-of-firing-young-man-injured-kalyan-maharashtra-lclar-1793950-2023-10-06</t>
-  </si>
-  <si>
-    <t>Modi government gave ultimatum to expel diplomats, Trudeau took this step out of compulsion</t>
-  </si>
-  <si>
-    <t>Canada has sent most of its diplomats out of India. According to a report released on Friday, Canadian diplomats have left Delhi and gone to either Kuala Lumpur or Singapore. Amidst the ongoing tension between the two countries over the killing of Khalistani terrorist Hardeep Singh Nijjar, India on Thursday had said in a strict tone that the number of diplomats in both the countries should be equal. India had given Canada an ultimatum till October 10 to recall its 41 diplomats. Canadian television network CTV News has given information about Canadian diplomats leaving India. CTV News quoted sources as saying that the Indian government has asked Canada to reduce the number of its diplomats in India to the number of Indian diplomats in Canada. It is being said in the reports that India has removed 41 of its diplomats from Canada. But sources CTV News spoke to say that both countries want an equal number of diplomats in their respective countries. The report says, 'Most Canadian diplomats working in India will be sent to Delhi. Global Affairs Canada, the department that oversees Canada's diplomatic and consular relations, had earlier said that its diplomats in India were receiving threats. The department had said, 'Some diplomats Threats have been received on various social media platforms. We are assessing the safety of our employees in India. Therefore, out of an abundance of caution, we have decided to temporarily reduce the presence of employees in India.' Canada took this step at the request of India.</t>
-  </si>
-  <si>
-    <t>world</t>
-  </si>
-  <si>
-    <t>https://www.aajtak.in/world/story/india-canada-tension-canada-evacuated-its-diplomats-from-india-to-kualalumpur-or-singapore-tlifwr-1793745-2023-10-06</t>
-  </si>
-  <si>
-    <t>Yamuna Expressway Investment: Indian and foreign companies camped on the banks of Yamuna, a game worth billions... Know what is the matter?</t>
-  </si>
-  <si>
-    <t>Yamuna Expressway is once again in the news after the successful organization of Moto GP and speculations about F-1 coming back to India. This area, which has come on the international scene after the opening of Jewar International Airport, is now becoming a favorite destination for the big companies of the country and the world. Especially IT companies, telecom equipment manufacturing companies, data centers and real estate developers are planning to invest here on a large scale. Yamuna Expressway will become a tech hub because the future of Noida-Greater-Noida Expressway and Yamuna Expressway is a Being seen as a tech hub, experts believe that there is going to be a huge increase in the supply of jobs and houses here. Commercial and residential real estate here is sure to benefit from this. A major reason for the rapid development of Yamuna Expressway is its affordability compared to other locations in the country. In fact, creating infrastructure in Gurugram, Bengaluru, Hyderabad and Pune is very expensive at present. Due to connectivity and other facilities on Yamuna Expressway, Noida-Greater Noida Expressway belt is ready to give strong competition to other areas. Microsoft will invest heavily. HCL, Tech Mahindra and Microsoft are already present in this belt. Talking about Microsoft, the India Development Center of this American giant tech company is spread over 1.5 lakh square feet. Its next project is a 6.45 lakh square feet data center. Microsoft's investment will be around Rs 1800 crore which will create 3 thousand jobs. Phone and consumer durable companies Samsung, Dixon, LG, Oppo, Vivo, Lava and Optimus were early investors in this belt and now they are also busy expanding their business. . According to these companies, better infrastructure and Jewar Airport are the major reasons for expanding here. The ongoing expansion of these companies here can make Noida the next hub of mobile and consumer durable manufacturing.</t>
-  </si>
-  <si>
-    <t>business</t>
-  </si>
-  <si>
-    <t>https://www.aajtak.in/business/utility/story/yamuna-expressway-has-become-more-attractive-due-to-jewar-international-airport-and-moto-g-tuta-1793124-2023-10-06</t>
-  </si>
-  <si>
-    <t>OnePlus' cheapest tablet Pad Go launched, price is less than 20 thousand, know the features</t>
-  </si>
-  <si>
-    <t>OnePlus has finally launched its affordable tablet. This is the second tablet of the brand. The company has launched OnePlus Pad Go in India in both LTE and Wi-Fi variants. The first phone of the brand is OnePlus Pad, which the company launched in February. The company has launched OnePlus Pad Go in a budget of Rs 20 thousand. It has a large 11.35-inch screen. The device works on an octacore processor. It has 8000mAh battery and 33W fast charging. Let us know the price and other features of this tablet. The company has launched this device in three configurations. The price of its 8GB RAM + 128GB storage variant is Rs 19,999. This price is for Wi-Fi variant. Whereas its LTE variant will come for Rs 21,999. In this also you will get 8GB RAM + 128GB storage. Whereas the Wi-Fi variant with 8GB RAM + 256GB storage comes for Rs 23,999. Also read- Solar Red edition of OnePlus 11R 5G launched, will get 18GB RAM and 512GB storage, know the price.</t>
-  </si>
-  <si>
-    <t>technology</t>
-  </si>
-  <si>
-    <t>https://www.aajtak.in/technology/tech-news/story/oneplus-pad-go-price-in-india-launch-with-8000mah-battery-specifications-sale-ttec-1793763-2023-10-06</t>
-  </si>
-  <si>
-    <t>Prayagraj: Yogi government's big plan before Mahakumbh, preparations to build 'Dwadash Madhav' circuit, know complete details</t>
-  </si>
-  <si>
-    <t>After Ram, Krishna and Buddha circuits, now there are preparations to build 'Dwadash Madhav' circuit in UP before Mahakumbh 2025. Under this, the 'Dwadash Madhav' temples of Prayag will be rejuvenated. UP CM Yogi Adityanath has approved the presentation about 'Dwadash Madhav' temples of mythological importance in the meeting with officials. In this, detailed plans have been made for many temples of Prayagraj after Ayodhya, Kashi, Mathura. According to beliefs, the sins of many births are erased by circumambulating 'Dwadash Madhav'. To promote religious and spiritual tourism in Uttar Pradesh, 'Dwadash Madhav' temples will be spruced up before Mahakumbh. Besides, work will also start on the plan of 125 km long 'Dwadash Madhav' circuit. In the meeting, UP CM directed that the development plans and projects of Kashi, Mathura, Ayodhya, Naimisharanya, Chitrakoot, Gorakhpur, Vindhyachal and Prayagraj should be expedited. . On the other hand, the construction work of Ram temple in Ayodhya is going on at a fast pace.</t>
-  </si>
-  <si>
-    <t>https://www.aajtak.in/uttar-pradesh/story/prayagraj-mahakumbh-yogi-government-big-plan-build-dwadash-madhav-circuit-know-details-ayodhya-deepotsav-lclam-1793938-2023-10-06</t>
-  </si>
-  <si>
-    <t>Had to make necklace from this 'disgusting' thing, woman caught at airport...</t>
-  </si>
-  <si>
-    <t>Whether a person is strange or not, he definitely comes into limelight by adopting strange hobbies to appear different. Now just look at a woman from Minnesota, America. Woman stuck at customs at airport due to giraffe feces. Actually the woman wanted to use the giraffe's feces to make a necklace. She brought giraffe feces in a box from Kenya to make a necklace, but was targeted by customs at the airport. Currently, the container of feces has been confiscated by the officers. US Customs and Border Protection said in a statement that when the woman's luggage was inspected after arriving at Minneapolis-Saint Paul Airport in Minnesota on September 29, Also claimed a small box. According to the statement, the officers engaged in security check were surprised when after opening the box, they found dried giraffe feces inside.</t>
-  </si>
-  <si>
-    <t>trending</t>
-  </si>
-  <si>
-    <t>https://www.aajtak.in/trending/story/box-of-giraffe-poo-seized-at-minnesota-airport-after-woman-wanted-to-use-it-to-make-a-necklace-tstb-1793703-2023-10-06</t>
-  </si>
-  <si>
-    <t>Sushma Group tightens grip on rising commercial real estate demand</t>
-  </si>
-  <si>
-    <t>Punjab. The Indian commercial real estate sector is experiencing significant growth beyond the metropolitan areas. Tier 2 and Tier 3 cities have emerged as hubs of commercial growth due to increased infrastructure development and better connectivity. The government's focus on infrastructure development has created employment opportunities. With the rise of digitalization and e-commerce, the need for commercial spaces has increased in Tier 2 and 3 cities. Local companies and retail have also benefited from this change, giving a major boost to the commercial real estate sector. Better roads, trains and new airports have increased connectivity. This has revolutionized office infrastructure development in Tier 2 cities. Apart from the demand for office space, there is an increase in retail consumption in Tier 2 cities. Rising incomes, "work from home" trend and higher incomes have increased the purchasing power of residents. Leading national and international retail brands are taking advantage of this by targeting Tier 2 cities, making retail spaces in these areas ripe for growth. The Tricity region, including the outskirts of Chandigarh in Punjab, North India, including Mohali and Panchkula, Progress has been seen. Having easy access to major highways and commercial hubs, the tricity has attracted sharp growth in rental rates and residential real estate returns. The increase in residential population and increase in infrastructure development has naturally driven the demand for commercial development.</t>
-  </si>
-  <si>
-    <t>impact-feature</t>
+    <t>Israel Palestine Conflict in Gaza: गाजा पट्टी पर रॉकेट्स की बौछार, हमास के 17 सैन्य ठिकानों पर अटैक... पढ़ें- कितना घातक है इजरायल का 'Iron Swords'</t>
+  </si>
+  <si>
+    <t>इजरायल में शनिवार की सुबह 6.25 बजे तक सबकुछ सामान्य था. वीकेंड और अलसाई सुबह होने पर लोग धीरे-धीरे अपने दिन की शुरुआत करने की तैयारी कर रहे थे. तभी फिजाओं में बारूद की गंध घुल गई. फिजाओं में सायरन की डराने वाली आवाजें सुनाई देने लगीं. दरअसल, फिलिस्तीन के आतंकी संगठन हमास ने इजरायल पर महज 20 मिनट में 5 हजार रॉकेट दागे. इस अटैक में इजरायल के 22 लोगों की मौत हो गई. हमास के हमले के बाद इजरायल ने 'युद्ध' की घोषणा कर दी है. प्रधानमंत्री बेंजामिन नेतन्याहू ने "युद्ध" की घोषणा की और कहा कि उनका देश अपने दुश्मन से "अभूतपूर्व कीमत" वसूलेगा. इजरायल ने अपने दुश्मन के खिलाफ 'ऑपरेशन आयरन स्वार्ड्स' लॉन्च किया है. वहीं इजरायल में कल यानी रविवार को स्कूलों की छुट्टी के आदेश दे दिए गए हैं. बता दें कि इजरायल में रविवार को स्कूलों की छुट्टी नहीं होती है.नेतन्याहू ने कहा कि हम युद्ध में हैं, किसी ऑपरेशन में नहीं. आज सुबह हमास ने इज़राइल और उसके नागरिकों पर एक जानलेवा हमला किया. दुश्मन को इसकी कीमत चुकानी पड़ेगी. हम युद्ध में हैं और हम इसे जीतेंगे. उन्होंने कहा कि मैंने अपने सभी सिक्योरिटी सिस्टम के चीफ को बुलाया और हमास के ठिकानों को तबाह करने का आदेश दिया, साथ ही बड़े पैमाने पर आर्टिलरी जुटाने का आदेश दिया है. हम हमास के हमले का करारा जवाब देंगे. दुश्मन को इसकी अभूतपूर्व कीमत चुकानी पड़ेगी.गाजा पट्टी पर चौतरफा हमलाइज़रायल डिफेंस फोर्स (IDF) ने कहा कि हमने हमास के हमले के जवाब में ऑपरेशन 'आयरन स्वॉर्ड्स' शुरू किया है. इसके जरिए हवा, जमीन और समुद्र से गाजा पट्टी में रॉकेटों की बौछार कर रहे हैं. इज़रायली वायु सेना ने आधिकारिक ट्विटर अकाउंट से कहा कि वायु सेना के दर्जनों लड़ाकू विमानों ने पूरे गाजा पट्टी में आतंकवादी संगठन हमास के 17 सैन्य परिसरों और 4 हेडक्वार्टर पर हमला किया है. आईडीएफ के प्रवक्ता रियर एडमिरल डैनियल हगारी ने प्रेस कॉन्फ्रेंस कर कहा कि सुबह 6:30 बजे से इज़राइल में रॉकेट दागे गए हैं. कम से कम सात जगहों पर इजरायली सैनिक घुसपैठियों से लड़ रहे हैं.हमासा का दावा- गाजा से इज़रायल में हजारों रॉकेट दागेउधर, गाजा पट्टी पर नियंत्रण रखने वाले इस्लामिक गुट हमास के एक वरिष्ठ कमांडर ने दावा किया है कि गाजा से इज़रायल में हजारों रॉकेट दागे गए हैं. हमास ने यह भी दावा किया कि उसने सुबह-सुबह इज़राइल की ओर 5,000 रॉकेट दागे थे, जिसे उसने "ऑपरेशन अल-अक्सा फ्लड" नाम दिया है. साथ ही कहा कि हमास की कार्रवाई अल-अक्सा मस्जिद के खिलाफ आक्रामकता के खिलाफ है. दक्षिणी गेडरोट क्षेत्र में सीधे रॉकेट हमले में मारे गए लोगों में 60 साल की एक महिला भी शामिल है.इजरायल के रक्षा मंत्री बोले- हर जगह दुश्मन से लड़ रहेइजरायल के रक्षा मंत्री योव गैलेंट ने कहा कि आईडीएफ के सैनिक हर जगह पर दुश्मन के खिलाफ लड़ रहे हैं. मैं इजराइल के सभी नागरिकों से सुरक्षा निर्देशों का पालन करने का आह्वान करता हूं. वहीं, हारेत्ज़ ऑनलाइन ने हमास की सैन्य शाखा के प्रमुख मोहम्मद डेफ़ के बयान के हवाले से कहा कि हमने दुश्मन को अल-अक्सा मस्जिद के खिलाफ अपनी आक्रामकता जारी नहीं रखने की चेतावनी दी है. उन्होंने कहा कि इज़रायल के ख़िलाफ़ हमास के नए हमलों का यह सिर्फ पहला चरण है. डेफ़ ने यरूशलेम और इज़रायल में नेगेव, गैलील और उत्तरी इज़रायल में अरबों से इस क्रांति में शामिल होने और कब्जाधारियों के पैरों के नीचे की धरती में आग लगाने की अपील की है.</t>
+  </si>
+  <si>
+    <t>https://www.aajtak.in/world/story/shelling-of-rockets-from-air-land-and-sea-in-gaza-strip-iron-swords-attack-military-bases-hamas-israel-action-against-palestine-ntc-1794548-2023-10-07</t>
+  </si>
+  <si>
+    <t>मजहब और जमीन की जंग से सना इतिहास, पढ़ें- इजरायल-फिलिस्तीन की अदावत की पूरी कहानी</t>
+  </si>
+  <si>
+    <t>फिलिस्तीन और इजरायल एक बार फिर आमने-सामने हैं. शनिवार सुबह फिलिस्तीनी आतंकियों ने इजरायल पर करीब 5 हजार रॉकेट दागे हैं. रॉकेट हमलों के बाद चारों तरफ तबाही का मंजर है. इस हमले के बाद इजरायली सेना ने कहा कि वह गाजा पट्टी में हमला कर रही है, क्योंकि हमास आतंकवादी समूह ने इजरायल के खिलाफ युद्ध छेड़ दिया है. इस घोषणा के बाद येरूशलेम में सायरन बज रहे हैं. सेना का कहना है कि इजरायल के कई क्षेत्रों में आतंकवादियों ने घुसपैठ की है. साथ ही इजरायल ने अपने नागरिकों को घर के अंदर रहने की सलाह दी है. हालांकि इजरायल और फिलिस्तीन के बीच दशकों से विवाद चल रहा है. इज़रायल और फिलीस्तीन के बीच की जंग दोनों ओर से ही आक्रामक अंदाज में लड़ी जाती है. अगर एक तरफ से एक मिसाइल दागी जाती है, तो दूसरी ओर से उससे कई गुना अधिक मिसाइलें दागकर जवाब दिया जाता है.इजरायल एक यहूदी देश है, जबकि फिलिस्तीन मुस्लिम बहुल देश है. इस पर हमास शासन करता है. ये जंग इजरायल की स्थापना के पहले से ही जारी है. फिलिस्तीन और कई मुस्लिम देश इजरायल को यहूदी राज्य के रूप में मानने से इनकार करते हैं. वहीं, इजरायल औऱ फिलिस्तीन दोनों दी देश येरूशलम को अपनी राजधानी मानते हैं. इन दोनों देशों के बीच सदियों से गाजा औऱ येरूशलम पर कब्जे की लड़ाई जारी है. भले ही दुश्मनी की तलवारें इस्लामिक उदय के साथ खिंच गई हों, लेकिन असली विवाद तब शुरू हुआ जब ओटोमन साम्राज्य खत्म हो रहा था.येरूशलम क्यों है दोनों धड़ों के लिए खास?पहला वर्ल्ड वॉर खत्म होने के बाद ओटोमन साम्राज्य की हार हो चुकी थी. वहीं, इतिहासकारों का कहना है कि पहले विश्व युद्ध के बाद मिडिल ईस्ट की पूरी तस्वीर बदल गई. युद्ध के बाद लोगों में राष्ट्रवाद की एक भावना पनपने लगी. विश्व युद्ध के बाद ये पूरा इलाका ब्रिटेन के हिस्से में आ गया, लेकिन जब यहूदियों ने स्वतंत्र देश की मांग की तो ज़ोरों की मांग ये भी उठी कि येरुशलम में यहूदियों के लिए एक जगह का निर्माण किया जाए, जिसे यहूदी सिर्फ अपना ही घर कहें. येरूशलम इजराइलियों और फ़िलिस्तीनियों का पवित्र शहर है. येरूशलम इजरायल-अरब तनाव में सबसे विवादित मुद्दा भी रहा है. ये शहर इस्लाम, यहूदी और ईसाई धर्मों में बेहद अहम स्थान रखता है. पैगंबर इब्राहिम को अपने इतिहास से जोड़ने वाले ये तीनों ही धर्म येरूशलम को अपना पवित्र स्थान मानते हैं. यही वजह है कि सदियों से मुसलमानों, यहूदियों और ईसाइयों के दिल में इस शहर का नाम बसता रहा है.यहूदियों और अरबों के बीच बंटीजमीनदूसरे विश्व युद्ध के बाद संयुक्त राष्ट्र ने एक प्रस्ताव लाकर दोनों ही देशों को अलग किया. जिसके बाद इज़रायल पहली बार दुनिया के वजूद में आया. सन 1947 में संयुक्त राष्ट्र ने एक प्रस्ताव पारित किया, जिसका मूल रूप बंटवारे को लेकर था. ब्रिटिश राज वाले इस इलाके को 2 भागों में बांट दिया गया, इसमें एक अरब इलाका और दूसरा यहूदियों का इलाका माना गया. जहां यहूदियों की संख्या ज्यादा है ,उन्हें इस्राइल दिया जाएगा. वहीं जहां अरब बहुसंख्यक हैं, उन्हें फिलिस्तीन दिया जाएगा. तीसरा था येरूशलम, इसे लेकर काफी मतभेद थे. यहां आधी आबादी यहूदी थी और आधी आबादी मुस्लिम. संयुक्त राष्ट्र संघ ने कहा कि इस क्षेत्र पर अंतरराष्ट्रीय नियंत्रण लागू होगा.कब हुआ इजरायल का जन्म?14 मई 1948 को संयुक्त राष्ट्र और दुनिया की नज़र में पहली बार इज़रायल का जन्म हुआ. इसी दिन इतिहास की पहली अरब और इज़रायली लड़ाई भी शुरू हो गई. ये लड़ाई करीब एक साल बाद 1949 में खत्म हो गई. इसमें इज़रायल की जीत हुई थी और करीब साढ़े सात लाख फिलीस्तीनियों को अपना इलाका छोड़ना पड़ा. अंत में ब्रिटिश राज वाला ये पूरा हिस्सा तीन भागों में बंट गया. जिसे इज़रायल, वेस्ट बैंक और गाज़ा पट्टी का नाम दिया गया.</t>
+  </si>
+  <si>
+    <t>https://www.aajtak.in/world/story/israel-palestine-war-past-stained-war-religion-land-history-enmity-between-two-countries-ntc-1794449-2023-10-07</t>
+  </si>
+  <si>
+    <t>Earthquake in Afghanistan: भूकंप के तेज झटकों से दहला अफगानिस्तान, 15 लोगों की मौत, कई घायल</t>
+  </si>
+  <si>
+    <t>अफगानिस्तान में शनिवार को एक के बाद एक आए तीनभूकंप के तेज झटकों ने तबाही मच दी. इसमें कम से कम 15लोगों की जान चली गई और 40 से अधिक लोग घायल हो गए. प्रशासन द्वारा राहत बचाव कार्य किया जा रहा है और लोगों को मलबे में निकालकर अस्पताल पहुंचाया जा रहा है.पहला भूकंप दोपहर 12:11 बजे आया, जिसकी तीव्रता 6.1 थी. इसके कुछ ही मिनट बाद 12:19 पर 5.6 तीव्रता वाले भूकंप से फिर धरती दहली. और फिर दोपहर 12:42 बजे रिक्टर पैमाने पर 6.2 तीव्रता का शक्तिशाली भूकंप दर्ज किया गया. भूकंपका केंद्र पश्चिमी अफगानिस्तान के एक प्रमुख शहरी केंद्र हेरात शहर से 40 किलोमीटर उत्तर पश्चिम में बताया गया है.अफगान अधिकारियों ने बताया कि भूकंप के झटकों से कई इमारतें क्षतिग्रस्त हो गईं, जिससे लोग मलबे में फंस गए. उन्हें निकालने के लिए रेस्क्यू ऑपरेशन चलाया गया है. घायलों को अस्पताल पहुंचाया गया है. इस दौरान कम से कम 15लोगों की मौत हुई है. आकंड़ बढ़ सकता है.</t>
+  </si>
+  <si>
+    <t>https://www.aajtak.in/world/story/powerful-earthquakes-hit-afghanistan-ntc-1794543-2023-10-07</t>
+  </si>
+  <si>
+    <t>हमास ने 20 मिनट में दागे 5 हजार रॉकेट, 35 को किया किडनैप... अब इजरायल का 'Iron Swords' से ताबड़तोड़ पलटवार</t>
+  </si>
+  <si>
+    <t>आतंकी संगठन हमास की ओर से दागे गए 5000 रॉकेट के जवाब में इजरायल ने 'ऑपरेशन आयरन स्वार्ड्स' लॉन्च किया है. इजरायल के कई लड़ाकू विमान गाजा पट्टी में हमास के ठिकानों पर बमबारी कर रहे हैं. इजरायली वायु सेना ने गाजा पट्टी में कई स्थानों पर हमास को निशाना बनाते हुए एक साथ दर्जनों लड़ाकू विमान को जंग में उतार दिया है.इससे पहले फिलिस्तीनी आतंकियों द्वारा इजरायल के कई रिहायशी इलाकों पर रॉकेट दागने के बाद इजरायल ने 'युद्ध की स्थिति' की घोषणा की थी. समाचार एजेंसी एपी के मुताबिक, इजराइल रेस्क्यू सर्विस ने बताया है कि हमास के इस हमले में कम से कम 22 इजराइली नागरिकों की मौत हुई है.वहीं, इजरायल के प्रधानमंत्री बेंजामिन नेतन्याहू ने अब एक वीडियो जारी करते हुए कहा है कि उनका देश इस युद्ध को जीतेगा. उन्होंने कहा है कि हम युद्ध में हैं और हम इसे जीतेंगे, हमारे दुश्मन (हमास) को ऐसी कीमत चुकानी पड़ेगी, जिसके बारे में उसने कभी सोचा भी नहीं होगा. "इजरायली सेना के प्रवक्ता ने मीडिया से बात करते हुए कहा है कि यह एक कम्बाइंड ग्राउंड अटैक था, जिसे पैराग्लाइडर, समुद्री और जमीनी माध्यम से किया गया. अभी हम गाजा पट्टी के आसपास कुछ जगहों पर लड़ रहे हैं. हमारी सेनाएं अभी जमीन पर लड़ रही हैं."आतंकियों कासफाया करने का आदेशः इजरायली पीएमऑपरेशन आयरन स्वोर्ड्स की घोषणा करते हुए इजरायल के प्रधानमंत्री बेंजामिन नेतन्याहू ने कहा है, " ये कोई मामूली ऑपरेशन नहीं है. हमास ने हमारे ऊपर हमला किया है और मैंने आदेश दिया है कि आतंकियों का सफाया किया जाए. हम आतंकियों और दुश्मनों को ऐसा सबक सिखाएंगे जिसकी उम्मीद उन्होंने कभी नहीं की होगी.#WATCH हम युद्ध में हैं, किसी ऑपरेशन या राउंड में नहीं। आज सुबह हमास ने इज़राइल और उसके नागरिकों पर एक जानलेवा हमला किया...दुश्मन को इसकी कीमत चुकानी पड़ेगी...हम युद्ध में हैं और हम इसे जीतेंगे: इज़राइल के प्रधानमंत्री बेंजामिन नेतन्याहू(वीडियो सौजन्य: इज़राइल के प्रधानमंत्री… pic.twitter.com/NLw1q7hB5eहमास ने बड़ी गलती की हैः इजरायली रक्षा मंत्रीशनिवार तड़के हमास आतंकी की ओर से रॉकेट हमले के बाद तेल-अवीव स्थित इजरायली सैन्य मुख्यालय में एक सुरक्षा कैबिनेट की बैठक की गई. बैठक के बाद इजरायल के रक्षा मंत्री योव गैलेंट ने कहा है कि हमास ने इजरायल पर हमला कर एक बड़ी गलती की है. उन्होंने कहा कि युद्ध की शुरुआत फिलिस्तीनी आतंकवादी समूह हमास ने की है लेकिन इसे इजरायल जीतेगा.रिपोर्ट के मुताबिक, इजरायली नागिकों और पुलिस ने दक्षिणी शहर सडेरोट के पुलिस स्टेशन में फिलिस्तीनी आतंकियों पर जमकर गोलीबारी की है.हमास का ऑपरेशन 'अल अक्सा स्टॉर्म'इजरायल पर हमले के बाद फिलिस्तीनी आतंकी संगठन हमास के नेता मोहम्मद डेफ ने बयान जारी करते हुए कहा है कि हमास ने इजरायल के खिलाफ एक नया सैन्य अभियान शुरू किया है. इस ऑपरेशन का नाम "ऑपरेशन अल अक्सा स्टॉर्म " रखा गया है.डेफ ने अपने बयान में कहा है, हमने यह फैसला किया है कि अब बहुत हो गया. हम सभी फिलिस्तीनियों से इजरायल का सामना करने का आग्रह करते हैं.इजरायल जीतेगाः नोर गिलोनफिलिस्तानी हमले के बाद भारत में इजरायल के अंबेसडर नोर गिलोन ने ट्वीट करते हुएकहा है, "फिलिस्तीनी आतंकियों ने दोतरफा हमला किया है. जमीन और आसमान... दोनों तरफ से अटैक हुआ है. उन्होंने कहा, यहूदी अवकाश के दौरान इजरायल पर गाजा से संयुक्त हमला हो रहा है. हमास आतंकवादियों की तरफ से रॉकेट और जमीनी घुसपैठ की गई है. स्थिति सामान्य नहीं है, लेकिन इजरायल जीत हासिल करेगा."#Israel is under a combined attack from Gaza during the Jewish holiday.Both by rockets and ground infiltration of Hamas terrorists.The situation is not simple but Israel will prevail.इजरायल पर हमले के बाद हमास के आतंकी ने मनाया जश्न</t>
+  </si>
+  <si>
+    <t>https://www.aajtak.in/world/story/israel-palestine-conflict-israel-launched-operation-iron-swords-israel-fighter-jets-targeting-the-palestinian-militant-tlifwe-1794418-2023-10-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India vs Afghanistan Asian Games 2023 Gold Medal: एश‍ियाड में भारत ने झटका क्रिकेट का गोल्ड मेडल, अधूरे मैच में कैसे टीम इंडिया बनी 'चैम्प‍ियन'?  </t>
+  </si>
+  <si>
+    <t>India vs Afghanistan Asian Games 2023 Gold Medal Match Update: भारत की पुरुष क्रिकेट टीम ने हांगझोउ एश‍ियन गेम्स में इत‍िहास रच दिया है. टीम इंडिया ने एश‍ियन गेम्स में गोल्ड मेडल हास‍िल किया है. इससे पहले महिला क्रिकेट टीम ने भी एश‍ियन गेम्स में गोल्ड मेडल जीता था.भारत और अफगान‍िस्तान का क्रिकेट का गोल्ड मेडल मैच बार‍िशकी वजह से रद्द हो गया. चूंकि ऋतुराज गायकवाड़ की कप्तानी में खेली रही टीम इंडिया शीर्ष रैंकिंग वाली टीम थी इसीलिए भारत को गोल्ड मेडल दिया गया. वहीं अफगान‍िस्तान को एश‍ियन गेम्स के स‍िल्वरस‍िल्वर मेडल से संतोष करना पड़ा. आज ही क्रिकेट का ब्रॉन्ज मेडल बांग्लादेश ने पाकिस्तान को हराकर जीता था.इससे पहले भारत ने मैच में टॉस जीता और कप्तान ऋतुराज गायकवाड़ ने पहले फील्ड‍िंग करने का फैसला किया. अफगान‍िस्तान की शुरुआत बेहद खराब रही. वहीं बार‍िश की वजह से जब मैच रुका तो अफगान‍िस्तान ने 112/5 (18.2 ओवर्स) का स्कोर बना लिया था.A post shared by Rinku 🧿🇮🇳 (@rinkukumar12)अफगान‍िस्तान की शुरुआत रही बेहद खराबअफगान‍िस्तान की शुरुआत बेहद खराब रही. अफगान‍िस्तान को पहला झटका श‍िवम दुबे ने द‍िया. श‍िवम ने सबसे पहले जुबैद अकबरी (5) को आउट किया. इसके बाद अफगान‍िस्तान का स्कोर 9 रन पर पहुंचा ही होगा, तभी अर्शदीप स‍िंह ने मोहम्मद शहजाद (4) को चलता कर दिया. शहजाद का कैच विकेटकीपर ज‍ितेश शर्मा ने लपका. अफगान‍िस्तान को 3.2 ओवर्स में 12 रन पर तीसराझटका लगा, जब नूर अली जादरान (1) रन पर आउट हो गए. इस स्कोर पर अफगानिस्तान संकट में घ‍िरती हुई द‍िख रही थी.क्ल‍िक करें: आख‍िरी गेंद पर चौका जड़कर बांग्लादेश ने पाकिस्तान के होश उड़ाए, जीताब्रॉन्ज मेडल फिर शाह‍िदुल्लाह कमल (49 नॉट आउट), अफसर जजई (15 ) ने अफगान‍िस्तान को संभालने की कोश‍िश की, पर पारी का 10वां ओवर लेकर आए रव‍ि बिश्नोई की गेंद पर अफसर गच्चा खा गए और बोल्ड हो गए. उस समय अफगान‍िस्तान के खाते में 49 रन जुड़े थे. फिर अफगान‍िस्तान का पांचवां विकेट करीम जनात (5) के रूप में गिरा. उनको शाहबाज अहमद ने बोल्ड किया.एश‍ियन गेम्स की कवरेज के ल‍िए क्ल‍िक करेंअंत में आकर अफगानी कप्तान गुलबदीन नईब (27 नॉट) ने शाह‍िदुल्लाह संग अफगानी पारी को संभाला, लेकिन 19 ओवर की दूसरी गेंद पर बार‍िश आ गई. इस कारण मैच आगे नहीं हो सका. बार‍िश ना रुकने की वजह से बाद में फाइनल रद्द कर दिया गया और भारत ने बेहतर वरीयता के कारण गोल्ड मेडल मिल गया. वहीं अफगानिस्तान को स‍िल्वर मेडल से संतोष करना पड़ा.</t>
+  </si>
+  <si>
+    <t>https://www.aajtak.in/sports/cricket/story/india-vs-afghanistan-asian-games-2023-highlights-score-india-won-gold-medal-in-asiad-cricket-afghanistan-won-silver-team-india-won-because-of-this-rule-tspo-1794431-2023-10-07</t>
+  </si>
+  <si>
+    <t>सावधान! एयरपोर्ट पर इस बात का ध्यान जरूर रखें, वरना 'कंगाल' हो जाएंगे</t>
+  </si>
+  <si>
+    <t>यात्रियों की सुरक्षा की जब भी बात आती है, तो एयरपोर्ट और मेट्रो को सबसे सुरक्षित माना जाता है. यहां सिक्योरिटी की इतनी चाकचौबंद व्यवस्था होती है कि किसी अपराधी द्वारा वारदात को अंजाम देना बहुत मुश्किल माना जाता है. एयरपोर्ट पर पहले एंट्री प्वाइंट पर आइडेंटिटी चेकिंग, फिर बोर्डिंग के बाद हर यात्री और उनके सामान की सघन तलाशी होती है. इसे देखकर हर यात्री के मन में यही सुकून होता है कि वो और उनका सामान यहां सबसे ज्यादा सुरक्षित है. लेकिन नहीं जनाब, ऐसा सोचना आपको कंगाल बना सकता है. आपको लाखों रुपए की चपत लगा सकता है. आप अपने कीमती सामानसे हमेशा के लिए हाथ धो सकते हैं. यकीन न हो तो दिल्ली एयरपोर्ट पर हुई इन वारदातों को जान लीजिए.16 सितंबर की बात है. पंजाब के तरन तारन की रहने वाली परमजीत कौर मेलबर्न से दिल्ली आईं. दुनिया कीबेहतरीन सिंगापुर एयरलाइंस में उनका सफर बहुत सुहाना रहा था. दिल्ली की धरती पर लैंड होते ही वो बहुत ज्यादा उत्साहित थीं. अमृतसर जाने के लिए उनको डोमेस्टिक फ्लाइट लेनी थी. वो जब इस फ्लाइट की बोर्डिंग के लिए पहुंची तो उनके समान का वजन अधिक पाया गया. इस वजह से जांच के लिए उनको अपना बैग खोलना पड़ा. परमजीत असमर्थ होने की वजह से व्हील चेयर पर थीं. इसलिए उनके सहायक की निगरानी में जांच होने के बाद क्लियरेंस मिल गई. सामान को व्यवस्थित करने के बाद उन्हें जाने की इजाजत दे दी गई. फ्लाइट लेने के बाद अमृतसर स्थित अपने घर पहुंच गईं.बैग खोलते ही यात्री के होश उड़ गएपरमजीत कौर अपने घरवालों से मिलकर बहुत खुश थीं. वो परिजनों के लिए कीमती सामान लेकर आई थीं. उन्होंने सामान देने के लिए अपना बैग खोला, लेकिन ये क्या? बैग में मौजूद सारे कीमती सामान जैसे कि गिफ्ट्स, जेवर और पर्स सब गायब थे. परिवार में कोहराम मच गया, क्योंकि लाखों रुपए के सामान गायब थे. परमजीत के परिजनों ने इंदिरा गांधी एयरपोर्ट पुलिस स्टेशनमें इस बाबत शिकायत दर्ज कराई. पुलिस ने केस दर्ज करने के बाद इस मामले की गंभीरता से जांच शुरू कर दिया. सीसीटीवी फुटेज खंगाले गए. इस दौरान कुछ संदिग्ध गतिविधियां दिखी तो उस वक्त ड्यूटी पर मौजूद लोडरों की लिस्ट बनाई गई. सबसे बारी-बारी से पूछताछ की गई. इसी दौरान एक लोडर ने सारा सच उगल दिया.ऐसे हुआ इस बड़ीवारदात का खुलासाआरोपी लोडर ने बताया कि वो और उसके साथी कैसे यात्रियों को बेवकूफ बनाकर उनके बैग से सामान निकाल लिया करते थे. उसके बाद कीमती सामानों को स्थानीय बाजारों में ले जाकर बेंच दिया करते थे. परमजीत से पहले भी उन्होंने कई यात्रियों के साथ ऐसा किया था. इस तरह पुलिस ने सात लोडरों को गिरफ्तार कर लिया है. उनकी निशानदेही पर यात्रियों के कीमती सामान बरामद कर लिए गए हैं. इनमें सोने के कई जेवर,आईपैड, महंगी घड़ियां और चश्मे आदि शामिल हैं. डीसीपी एयरपोर्ट देवेश माहला का कहना है कि एयरलाइंस के कुछ अधिकारियों की भूमिका की भी जांच की जा रही है. चोरी की ऐसी घटनाओं पर अंकुश लगाने के लिए संबंधित जरूरी काईवाई के लिए हम सक्रिय हैं.एयपोर्ट पर चोरी की ये कोई पहली वारदात नहीं है, इस तरह की घटनाओं काएक सिलसिलेवार क्रम है. केवल इसी साल ऐसी कई घटनाओं का पर्दाफाश किया जा चुका है. इसके बावजूद इन पर लगाम नहीं लग पा रहा है. इसके पीछे एक बड़ा गिरोह सक्रिय है, जिसके भांडाफोड़ की सख्त जरूरत है. आइए ऐसी कुछ घटनाओं के बारे में जानते हैं...सितंबर, 2023दिल्ली एयरपोर्टदिल्ली के रहने वाले अनिल कपूर इसी साल जून में अपने परिवार के साथ कनाडा जा रहे थे. उनको दिल्ली स्थित इंदिरा गांधी इंटरनेशनल एयरपोर्ट से लुफ्थांसा एयरलाइंस की फ्लाइट लेनी थी. बोर्डिंग के दौरान उनका बैग चेक किया गया, उसके बाद व्हील चेयर लेकर वो फ्लाइट लेने के लिए चले गए. कनाडा पहुंचने के बाद जब उन्होंने अपने बैग की तलाशी ली तो भी हैरान रह गए. उनके बैग से आईफोन 14 प्रो मैक्स (1 लाख 75 हजार रुपए) गायब था. इस फोन को वो अपने बेटे को देने वाले थे. उनकी शिकायत पर एयरपोर्ट थाने की पुलिस ने जांच शुरू की, तो एक के बाद एक कई मामलों का खुलासा हो गया. इस मामले में एक लोडर गिरफ्तार हुआ, जिसने पूरे गैंग का पर्दाफाश करा दिया.इस केस की जांच के दौरान पुलिस ने हाथ में बांधने वाली 13 महंगी घड़ियों के साथ अनिल कपूर का आईफोन भी बरामद कर लिया. हालांकि, इन सबमें चार महीने लग गए. सितंबर में पुलिस इस केस को सॉल्व कर पाई. लेकिन बड़ी सफलता मिली. उस वक्त दिल्ली पुलिस के एक अधिकारी ने बताया था कि एयरपोर्ट से सामान चोरी होने के मामले सामने आने के बाद से शिकंजा कसा जा रहा है. पुलिस ऐसे लोगों की तलाश कर रही है जो एयरपोर्ट से सामान, बैग, मोबाइल, घड़ियों की चोरी करते हैं. इस कड़ी में अब तक 25 आरोपियों को गिरफ्तार किया जा चुका है. ये सभी लोग चोरी की वारदात में किसी न किसी रूप में शामिल थे. इन सबके पास से चोरी किए गए कीमती सामान भी बरामद किए गए हैं.जनवरी, 2023दिल्ली एयरपोर्टइसी साल जनवरी में दिल्ली के आईजीआई एयरपोर्ट और विजिलेंस विभाग के संयुक्त ऑपरेशन में अलग-अलग एयरलाइंस के आठ लोडरों को गिरफ्तार किया गया था. इन सभी के पास से लाखों रुपए की कीमती घड़ियां, सोने-चांदी के जेवर, महंगे मोबाइल, आईपैड बरामद किए गए थे. गिरफ्तार किेए गए आरोपियों की पहचान दीपक पाल, गौतम कुमार, मोहसीन खान, राहुल यादव, यशविंदर, पप्पी कुमार, नीरज कुमार और कमल कुमार के रूप में की गई थी. उस वक्त दिल्ली के एयरपोर्ट के डीसीपी एयरपोर्ट रवि कुमार सिंह ने बताया था कि अलग-अलग शिकायतों के आधार पर पुलिस कार्रवाई से एयरपोर्ट पर हुईं चोरियों के चार बड़े मामले सुलझाए गए. इस दौरान एक बड़े गैंग का पर्दाफाश हुआ है.इस गैंग का सरगना दीपक पाल था. पुलिस द्वारा पूछताछ के दौरान दीपक ने बताया था कि वो ग्राउंड हैंडलिंग असिस्टेंट के तौर पर साल 2018 से जुड़ा हुआ है. उसे 18000 रुपए सैलरी मिलती है. इतने पैसों में उसके परिवार का गुजारा नहीं हो पाता है. यही वजह है कि उसने एक गैंग बनाकर यात्रियों के बैग से चोरी शुरू कर दी. इस वारदात में हर अपराधी की अलग-अलग भूमिका होती थी. ये लोग पहले बैग से सामान चुराते उसके बाद कुछ दिन के लिए एयरपोर्ट के लॉकर में रखते थे. फिर मौका देखकर गैंग का कोई सदस्य अपने अंडरगारमेंट्स में रखकर सामान को एयरपोर्ट से बाहर निकाल देता था. वहां बाजार में इन सामानों के ग्राहक पहले से तय होते थे. इस तरह चोरी को अंजाम दिया जाता था.जुलाई, 2023अमृतसर एयरपोर्टएयपोर्ट के अंदर चोरी की ऐसी वारदातें केवल दिल्ली में ही नहीं होती, बल्कि देश के कई एयरपोर्ट पर इस तरह की घटनाएं सामने आ चुकी हैं. इसी साल जुलाई में पंजाब के अमृतसर में श्री गुरु रामदास जी इंटरनेशनल एयरपोर्ट पर एक बुजुर्ग महिला पहुंची. उनको लंदन जाना था. बोर्डिंग होने के बाद वो सिक्योरिटी जांच के लिए जा रही थी. उसी वक्त एक लोडर उनके पास आ गया. उसने महिला से कहा कि वो इतनी सारी ज्वेलरी पहन फ्लाइट के अंदर नहीं जा सकती हैं. इसके बाद ज्वैलरी उतारकर बैग में रखने की सलाह दे दी. महिला ने उसकी बात मान ली, तो वो उन्हें लेकर टर्मिनल हॉल में गया. वहां सोने की चूड़ियां उतारकर बैग में रखवा दिया. महिला फ्लाइट लेने चली गईं. लेकिन लंदन पहुंचने के बाद जब उन्होंने अपना बैग चेक किया तो चूड़ियां गायब थीं. उनकी बेटी की शिकायत पर पुलिस ने आरोपी गुरप्रीत सिंह गोपी को गिरफ्तार कर लिया था.चोरी की वारदात में लोडर ही शामिल क्यों?एयरपोर्ट पर होने वाली चोरी की अधिकांश वारदातों में लोडर ही शामिल होते हैं. दरअसल, उनके पास ही सामान को फ्लाइट तक ले जाने की जिम्मेदारी होती है. बोर्डिंग के बाद सामान संबंधित फ्लाइट पर लोड होने के लिए भेज दिया जाता है. इस दौरान लोडर गैंग सक्रिय हो जाता है. सामान को ले जाते समय एक ब्लैक स्पॉट पर रोक दिया जाता है. वहां सामान के चारों तरफ गैंग के सदस्य खड़े हो जाते हैं. फिर एक चोर पेन से बैग की चेन खोल लेता है. इसके बाद महज कुछ सेकेंडों में कीमती सामान चुरा लेते हैं. ऐसी चोरियां रोकने के लिए सबसे जरूरी सर्विलांस और हर जगह हर एंगल से सीसीटीवी का होना जरूरी है. लेकिन चोरों का गैंग ऐसे ब्लैक स्पॉट निकालकर चोरी करता है.दिल्ली एयरपोर्ट पर चोरी की ज्यादा वारदात</t>
+  </si>
+  <si>
+    <t>https://www.aajtak.in/crime/big-crime/story/loaders-arrested-by-police-for-stealing-valuables-from-passengers-bags-at-igi-delhi-airport-opnm2-1794531-2023-10-07</t>
+  </si>
+  <si>
+    <t>'दुश्मन ऐसी कीमत चुकाएगा...', हमास के खिलाफ नेतन्याहू ने किया युद्ध का ऐलान, गाजा को बमों से पाट दिया</t>
+  </si>
+  <si>
+    <t>इजरायल ने फिलिस्तीन को सबक सिखाने के लिए अपने फाइटर जेट युद्ध के मैदान में उतार दिए हैं.इजरायली सेना ने गाजा पट्टी में हमासके खिलाफ 'ऑपरेशन आयरन स्वॉर्ड्स' शुरू किया है.गाजा पर हवाई हमले शुरू कर दिए हैं.इजरायली वायुसेना के दर्जनों लड़ाकू विमानगाजा पट्टी में कई जगहोंपर आतंकवादी संगठन हमास के ठिकानों पर हमला कर रहे हैं. इस इलाके को बमों से पाट दिया है.इस बीच,इजरायल के प्रधानमंत्री नेतन्याहू ने बड़ा बयान दिया है. उन्होंने साफ कहा कि हम युद्ध में उतर गए हैं. ये कोई ऑपरेशन नहीं है. हमास ने इजरायल और उसके नागरिकों के खिलाफ जानलेवा हमला किया है. मैंने सबसे पहले घुसपैठ करने वाले आतंकवादियों की बस्तियों को साफ करने का आदेश दिया है. इसके अलावा, बड़े पैमाने पर हथियार जुटाने के लिए कहा है. दुश्मन को ऐसी कीमत चुकानी पड़ेगी, जिसके बारे में उसने कभी नहीं सोचा होगा.बता दें कि शनिवार सुबह फिलिस्तीनी आर्म्स ग्रुप हमास ने गाजा पट्टी से रॉकेट हमलों की झड़ी लगाई. ये हमले इजरायल पर किए गए. हमास ने हमलों की जिम्मेदारी ली और इसे इजरायल के खिलाफ सैन्य कार्रवाई बताया है. हमास ने गाजा पट्टी से करीब 20 मिनट में 5,000 रॉकेट दागे. इतना ही नहीं, इजरायल में घुसपैठ की और कुछ सैन्य वाहनों पर कब्जा कर लिया. इसके अलावा, इजरायल के पांच सैनिकों का अपहरण कर लिया है. हमलों में करीब 5 की मौत हुई है और 100 से ज्यादा घायल हुए हैं. इसके जवाब में इजरायल ने भी मोर्चा संभाल लिया है.'हमला सामान्य नहीं, इजरायल जीतेगा'फिलिस्तानी हमले के बाद इजरायल के रक्षा मंत्री का बयान आया है. उन्होंने कहा, हमास ने आज सुबह इजरायल के खिलाफ युद्ध शुरू करके एक बहुत बड़ी गलती कर दी है. वहीं, इस घटना के बाद भारत में इजरायल के अंबेसडर नोर गिलोन ने भी ट्वीट किया है. उन्होंने कहा, फिलिस्तीनी आतंकियों ने दोतरफा हमला किया है. जमीन और आसमान... दोनों तरफ से अटैक हुआ है. उन्होंने कहा, यहूदी अवकाश के दौरान इजरायल पर गाजा से संयुक्त हमला हो रहा है. हमास आतंकवादियों की तरफ से रॉकेट और जमीनी घुसपैठ की गई है. स्थिति सामान्य नहीं है, लेकिन इजरायल जीत हासिल करेगा.​'हमास ने बिना किसी चेतावनी के रॉकेट दागे'बता दें कि इजरायल ने 'युद्ध की स्थिति' की घोषणा की है और क्षेत्र में फिलिस्तीनी ठिकानों पर हमला किया है. यरुशलम समेत पूरे इजरायल में हवाई हमले के सायरन बजाए गए हैं. शनिवार को फिलिस्तीन ने अपने नियंत्रण वाले इलाका गाजा से हमला कर दिया. हमास के एक वरिष्ठ सैन्य कमांडर मोहम्मद दीफ ने ऑपरेशन की शुरुआत की घोषणा की. उन्होंने फिलिस्तीनियों से आखिरी कब्जे के खिलाफ लड़ने का आग्रह किया. उसके बाद बिना किसी चेतावनी के रॉकेट हमले शुरू कर दिए. यह अटैक तब हुआ, जब इजरायल यहूदी अवकाश मना रहा था. दर्जनों आतंकवादियों ने गाजा पट्टी से सेडरोट के पास इजरायल में घुसपैठ की.​'इजरायल में घुसे हमास के आतंकी'हमास के बंदूकधारियों के सोशल मीडिया पर वीडियो सामने आए हैं. इसमें जब्त किए गए इजरायली सेना के वाहन देखे जा रहे हैं. हमास ग्रुप के आतंकियों को इजरायल में प्रवेश करते देखा जा रहा है. इजरायली सेना ने कहा, बड़ी संख्या में आतंकवादियों ने इजरायली क्षेत्र में घुसपैठ की है. इजरायल हमास को आतंकवादी समूह मानता है. सेडरोट में कई इजरायली नागरिकों की गोली मारकर हत्या की गई है. कुछ गंभीर रूप से घायल हो गए हैं. कई सैनिकों को उनकी बैरक में गोली मार दी गई है.#Israel is under a combined attack from Gaza during the Jewish holiday.Both by rockets and ground infiltration of Hamas terrorists.The situation is not simple but Israel will prevail.​​'इजरायल में खूनखराबा कर रहे फिलिस्तानी आतंकी'फिलिस्तीनी आर्म्स ग्रुप हमास का दावा है कि हमने इजरायल के खिलाफ अपना सैन्य अभियान चलाया है. शनिवार सुबह इजरायल में रॉकेट से हमले किए हैं. इसके अलावा इजरायल के पांच सैनिकों का अपहरण कर लिया है. हमास का कहना है कि गाजा से 20 मिनट में 5,000 से ज्यादा रॉकेट दागे गए हैं. अल जजीरा ने हमास के हवाले से कहा, हमने कब्जे (इजरायल) के सभी अपराधों को खत्म करने का फैसला किया है. बिना जवाबदेही के माहौल खराब करने का उनका समय समाप्त हो गया है. हमास ने इजरायली क्षेत्र में घुसपैठ कर रहे अपने लड़ाकों की कुछ तस्वीरें भी जारी की हैं. इन तस्वीरों में ये लड़ाके हाथों में बंदूक थामे हैं और खुद को कवर कर रखा है. कुछ लड़ाकों टूव्हीलर से हैं और बॉर्डर के आसपास पहुंचते देखे जा रहे हैं.#WATCH | Gaza City: Visuals from Tel Aviv after barrage of rockets launched into Israel(Source: Reuters) pic.twitter.com/2xz81sW3PR​'घरों में घुसकर हमला कर रहे हैं हमास के आतंकवादी'इजरायल के विदेश मंत्रालय ने ट्वीट किया और कहा, आज सुबह हमास के दर्जनों आतंकवादी गाजा से इजराइल में घुस गए. हजारों इजरायली लोग अपने घरों में घुसे हैं. जबकि हमास के आतंकवादी दक्षिणी इलाके में बवाल काट रहे हैं. घरों में घुसपैठ की जा रही है. निर्दोष इजरायली परिवारों की हत्या करने की कोशिश कर रहे हैं. हम जमीनी स्तर पर जानकारी जुटा रहे हैं.​भारत में इजरायल के राजदूत ने बताया घटनाक्रम...</t>
+  </si>
+  <si>
+    <t>https://www.aajtak.in/world/story/israel-gaza-conflict-hamas-has-made-a-big-mistake-israel-gave-a-befitting-reply-to-palestine-gaza-on-target-ntc-1794378-2023-10-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sikkim Flash Floods Proof : सिक्किम में कैसे आई प्रलय... दो Photos से जानिए पूरी कहानी </t>
+  </si>
+  <si>
+    <t>Sikkim में प्रलय आने का सबूत मिल गया है. 17,100 फीट की ऊंचाई पर साउथ ल्होनक लेक के मुंहाने की दीवार टूटी. इस दीवार को मोरेन (Moraine) कहते हैं. झील में पानी की मात्रा ज्यादा होने पर दीवार टूट गई. वो भी किनारे से. इस बात को दो सैटेलाइट तस्वीरें पुख्ता करती हैं. इन तस्वीरों को Maxar ने लिया है. इससे पहले ISRO ने भी सैटेलाइट तस्वीरें जारी की थीं.पहले इन दो कॉम्बो तस्वीरों से समझते हैं कि हुआ क्या. अगर बाएं से दाएं देखें... तो आपको साउथ ल्होनक लेक में जमी बर्फ और पानी दिखाई देगा. मुहाने पर जमा मोरेन की मोटाई और चौड़ाई भी ज्यादा दिखेगी. लेकिन दाहिनी तरफ जो तस्वीर हैं, उसमें मोरेन छितराया हुआ. टूटा हुआ दिख रहा है. पानी का लेवल भी कम है.इस झील पर ये आफत आई कैसे. असल में साउथ ल्होनक लेक पर ग्लेशियल लेक आउटबर्स्ट फ्लड यानी GLOF का खतरा काफी पहले से था. साइंटिस्ट इस बात की तस्दीक कई सालों से दे रहे थे. उस झील के बढ़ते आकार की स्टडी कर रहे थे. दो साल पहले भी IIT Roorkee और IISC Bengaluru के तीन वैज्ञानिकों ने इसके टूटने की आशंका जताई थी. लेकिन सरकार या प्रशासन ने इस तरफ ध्यान नहीं दिया.इन तस्वीरों से समझिए कि कहां टूटी लेकयहां ऊपर दी गई तस्वीर इस साल फरवरी की है. जिसमें लेक के बाएं तरफ ल्होनक ग्लेशियर (Lhonak Glacier) का निचला हिस्सा दिख रहा है. झील के चारों तरफ मोरेन दिख रहा है. यानी मिट्टी और पत्थरों की मोटी दीवार. उसके बाद ऊंचा पहाड़ों का निचला हिस्सा है. पानी के ऊपर बर्फ की पतली परत दिख रही है. जिसमें दरारें भी हैं. जिस जगह मोरेन में टूट हुई वो जगह भी ठीक दिख रहा है. पानी मोरेन तक पहुंचा ही नहीं है.यहां ऊपर दी गई फोटो झील के टूटने के दो दिन बाद की है. यानी 6 अक्टूबर 2023 की. बाएं तरफ ग्लेशियर की बर्फ की मात्रा भी ज्यादा दिख रही है. झील में पानी का स्तर भी कम दिख रहा है. बर्फ की पतली चादर टूट चुकी है. दाहिनी तरफ तीर के पास मोरेन टूटा हुआ है. 3-4 अक्टूबर की रात लगातार हुई भयानक बारिश की वजह से झील में पानी का स्तर बढ़ता चला गया. दबाव की वजह से मोरेन टूट गया. पानी, बर्फ और कीचड़ बहकर 62 किलोमीटर दूर चुंगथांग डैम तक पहुंच गया. इतना पानी वह डैम बर्दाश्त नहीं कर पाया. वह भी टूट गया. फिर चारों तरफ प्रलय ही प्रलय.कैसी है ये साउथ ल्होनक झील?साउथ ल्होनक झील एक प्रोग्लेशियल लेक है. यानी ग्लेशियर के पिघलने से निकले पानी से बनी झील. जो मोरेन टूटा है वह करीब 16.3 मीटर ऊंचा था. यानी करीब 54 फीट ऊंचा. अब आप सोचिए कि कितना पानी इस झील में भरा होगा कि 54 फीट ऊंची प्राकृतिक दीवार टूट गई. झील की गहराई 120 मीटर यानी 394 फीट है. यह पिछले चार दशकों से लगातार 0.10 वर्ग किलोमीटर से लेकर 1.37 वर्ग किलोमीटर की दर से बढ़ती जा रही थी. इसी वजह से वैज्ञानिक इसकी स्टडी कर रहे थे. ताकि सही समय पर आपदा की भविष्यवाणी कर सकें.साउथ ल्होनक झील पहले से ही टूटने की कगार पर थी. वैज्ञानिकों ने दो साल पहले यानी साल 2021 में ही इस लेक के टूटने की आशंका जताई थी. यह झील करीब 168 हेक्टेयर इलाके में फैली थी. जिसमें से 100 हेक्टेयर का इलाका टूट कर खत्म हो गया. यानी इतने बड़े इलाके में जमी बर्फ और पानी बहकर नीचे की ओर आया है.12 हजार से ज्यादा ग्लेशियर पिघल रहे हिमालय परपूरे हिमालय पर 12 हजार से ज्यादा छोटे-बड़े ग्लेशियर हैं. जो लगातार जलवायु परिवर्तन और ग्लोबल वॉर्मिंग की वजह से पिघल रहे हैं. इनसे बनने वाली ग्लेशियल लेक के टूटने का खतरा रहता है. 1985 में नेपाल में दिग त्शो झील के टूटने से बड़ी आपदा आई थी. 1994 भूटान में लुग्गे त्सो झील टूटने से भी ऐसी ही आपदा आई थी. 2013 में केदारनाथ हादसे ने 6 हजार से ज्यादा लोगों की जान ले ली थी. यहां भी चोराबारी ग्लेशियर टूटा था. जिससे प्रलय आया था.क्या दिखाया गया था इसरो की तस्वीर में... फिलहाल वैज्ञानिकों का कहना ये है कि अभी एकदम से नेपाल के भूकंप और सिक्किम के GLOG यानी ग्लेशियल लेक आउटबर्स्ट फ्लड को जोड़ा नहीं जा सकता. लेकिन हम इसके संबंधों की जांच कर रहे हैं. क्योंकि सिर्फ बादल फटने से इतनी बड़ी घटना नहीं हो सकती. अगर आप ISRO द्वारा जारी तस्वीरों को देखिए तो आपको पता चलेगा.इसरो ने तीन सैटेलाइट फोटो का कॉम्बो जारी किया है. अगर आप तस्वीर को बाईं तरफ से देखेंगे तो उसमें साफ दिखा रहा है अंतर. पहले हिस्से में दिख रहा है कि 17 सितंबर 2023 को झील करीब 162.7 हेक्टेयर क्षेत्रफल की थी. 28 सितंबर 2023 को बढ़कर 167.4 हेक्टेयर इलाके में फैल गई. 04 अक्टूबर को इसका क्षेत्रफल सिर्फ 60.3% ही बचा.झील का बहुत बड़ा हिस्सा टूटकर खत्म हो चुका है. यह तस्वीरें इसरो के RISAT-1A और यूरोपियन स्पेस एजेंसी (ESA) के सेंटीनल-1ए सैटेलाइट से ली गई हैं. साउथ ल्होनक ग्लेशियल लेक उत्तरी सिक्किम के मंगन जिले के चुंगथांग के ऊपर 17,100 फीट की ऊंचाई पर है. इस झील की गहराई करीब 260 फीट है. यह 1.98 KM लंबी और आधा किलोमीटर चौड़ी है.झील टूटने के बाद क्या हुआ?3-4 अक्टूबर के बीच की रात झील की दीवारें टूटीं. ऊपर जमा पानी तेजी से नीचे बहती तीस्ता नदी में आया. इसकी वजह से मंगल, गैंगटोक, पाकयोंग और नामची जिलों में भयानक तबाही हुई. चुंगथांग एनएचपीसी डैम और ब्रिज बह गए. मिन्शीथांग में दो ब्रिज, जेमा में एक और रिचू में एक ब्रिज बह गया. सिक्किम के राज्य आपदा प्रबंधन अथॉरिटी (SDMA) ने बताया कि पानी का बहाव 15 मीटर प्रति सेकेंड था. यानी 54 किलोमीटर प्रति सेकेंड.अगर 17 हजार फीट की ऊंचाई से पानी इस गति में नीचे आता है तो ये भयानक तबाही के लिए पर्याप्त है. इस फ्लैश फ्लड (Flash Flood) ने कई जगहों सड़कों को खत्म कर दिया. कम्यूनिकेशन लाइंस टूट गईं. क्लाइमेट चेंज के एक्सपर्ट अरुण बी श्रेष्ठ ने कहा कि तीस्ता नदी में आई फ्लैश फ्लड भयानक थी. बंगाल की खाड़ी में लो प्रेशर एरिया बना है. इसलिए ज्यादा बारिश हुई. जिसकी वजह से इतनी बड़ी आपदा आई है. अरुण ने कहा कि पिछले 24 घंटों में 100 मिलिमीटर से ज्यादा पानी बरसा है.साउथ ल्होनक लेक ही मुसीबत नहीं... ?यह झील चुंगथांग के ऊपर 17,100 फीट की ऊंचाई पर है. यह झील ल्होनक ग्लेशियर के पिघलने की वजह से बनी थी. झील का आकार लगातार बढ़ता जा रहा था. इसमें नॉर्थ ल्होनक ग्लेशियर और मुख्य ल्होनक ग्लेशियर पिघलने से पानी आ रहा था. 2021 में साइंस डायरेक्ट में एक स्टडी छपी थी. जिसमें कहा गया था कि अगर GLOF होता है तो ये झील भारी तबाही मचा सकती है. इसकी वजह से जानमाल और पर्यावरण को नुकसान होता है.साल 2013 में उत्तराखंड का चोराबारी ग्लेशियल लेक भी इसी तरह टूटा था. उसके ऊपर भी बादल फटा था. जिसकी वजह से केदारनाथ आपदा आई थी. दस साल बाद फिर वैसी ही घटना हिमालय में देखने को मिली है. इसके अलावा 2014 में झेलम नदी में फ्लैश फ्लड आने की वजह से कश्मीर के कई इलाकों में बाढ़ आ गई थी. 2005 में हिमाचल प्रदेश परेचू नदी में फ्लैश फ्लड से तबाही मची थी.केदारनाथ हादसा साल 2004 में आई सुनामी के बाद सबसे बड़ा हादसा था. वजह थी चोराबारी ग्लेशियर का पिघलना और मंदाकिनी नदी द्वारा अन्य जलस्रोतों को ब्लॉक करना. केदारनाथ आपदा में 6 हजार लोगों के मारे जाने की पुष्टि हुई थी. फरवरी 2021 में चमोली जिले के ऋषि गंगा, धुलिगंगा और अलकनंदा नदियों में भी ऐसा ही फ्लैश फ्लड आया था.संसद की स्टैंडिंग कमेटी ने की थी जांचसंसद की स्टैंडिंग कमेटी जांच-पड़ताल कर रही है कि देश में ग्लेशियरों का प्रबंधन कैसे हो रहा है. अचानक से बाढ़ लाने वाली ग्लेशियल लेक आउटबर्स्टस को लेकर क्या तैयारी है. खासतौर से हिमालय के इलाको में. यह रिपोर्ट 29 मार्च 2023 को लोकसभा में पेश किया गया है.जल संसाधन, नदी विकास और गंगा संरक्षण मंत्रालय ने बताया कि जियोलॉजिकल सर्वे ऑफ इंडिया (GSI) ग्लेशियरों के पिघलने की स्टडी कर रही है. लगातार ग्लेशियरों पर नजर रखी जा रही है. 9 बड़े ग्लेशियरों का अध्ययन हो रहा है. जबकि 76 ग्लेशियरों के बढ़ने या घटने पर भी नजर रखी जा रही है. अलग-अलग इलाकों में ग्लेशियर तेजी से विभिन्न दरों से पिघल रहे या सिकुड़ रहे हैं ग्लेशियर.अभी तो और भी आपदाओं की आशंकासरकार ने माना है कि ग्लेशियरों के पिघलने से नदियों के बहाव में अंतर तो आएगा ही. साथ ही कई तरह की आपदाएं आएंगी. जैसे ग्लेशियल लेक आउटबर्स्ट फ्लड (GLOF), ग्लेशियर एवलांच, हिमस्खलन आदि. जैसे केदारनाथ और चमोली में हुए हादसे थे. इसकी वजह से नदियां और ग्लेशियर अगर हिमालय से खत्म हो गए. तो पहाड़ों पर पेड़ों की नस्लों और फैलाव पर असर पड़ेगा. साथ ही उन पौधों का व्यवहार बदलेगा जो पानी की कमी से जूझ रहे हैं.हिमालय पर कम हो रही सर्दीलगातार हो रहे जलवायु परिवर्तन और बढ़ते तापमान की वजह से हिमालय पर Cold Days कैसे घटते जा रहे हैं. रिपोर्ट में बताया गया है कि हिमालय का तापमान लगातार बढ़ता जा रहा है. कोल्ड डेज़ और कोल्ड नाइट्स की गणना के लिए जम्मू और कश्मीर और हिमाचल प्रदेश में 16 स्टेशन हैं. लगातार गर्म दिन बढ़ रहे हैं. जबकि ठंडे दिन कम होते जा रहे हैं. पिछले 30 वर्षों में ठंडे दिनों में 2% से 6% की कमी आई है.</t>
+  </si>
+  <si>
+    <t>https://www.aajtak.in/science/story/sikkim-disaster-photo-proof-know-reason-behind-flash-floods-ssc-1794414-2023-10-07</t>
+  </si>
+  <si>
+    <t>21 कांग्रेस तो 60 सीट BJP की 'फिक्स', 119 सीटों से तय होता है राजस्थान में किसकी बनेगी सरकार!</t>
+  </si>
+  <si>
+    <t>राजस्थान में चुनावी घमासान के बीच भाजपा, कांग्रेस और बसपा सहित सभी पार्टियां अपनी पूरी ताकत झोंक रही हैं, लेकिन राजस्थान की सत्ता के शीर्ष तक पहुंचने के लिए भाजपा और कांग्रेस की असल खींचतान 119 सीटों पर रहती है. प्रदेश में 60 सीट ऐसी हैं जिन पर हमेशा भाजपा का कब्जा रहता है तो 21 सीटों पर कांग्रेस जीतती आई है. लेकिन प्रदेश की 119 सीटें ऐसी हैं जिनको जीतने के लिए दोनों ही पार्टियां राजनीति का हर दांव-पेच खेलती हैं. इन सीटों पर जीतने हासिल करने के बाद ही पार्टी सत्ता में पहुंचती है.भाजपा का इन सीट पर रहता है कब्जाअगर विधानसभा चुनाव पर नजर डालें तो भाजपा को 5 बार पाली में जीत मिली है. जबकि 4 बार उदयपुर, लाडपुरा, रामगंज मंडी, सोजत, झालरापाटन, खानपुर, भीलवाड़ा, ब्यावर, फुलेरा, सांगानेर, रेवदर, राजसमंद, नागौर में जीत दर्ज की. साथ ही कोटा साउथ, बूंदी, सूरसागर, भीनमाल, अजमेर नॉर्थ, अजमेर साउथ, मालवीय नगर, रतनगढ़, विद्याधर नगर, बीकानेर ईस्ट, सिवाना, अलवर सिटी, आसींद में 3 बार बीजेपी ने जीत दर्ज कराई. जबकि 33 सीटों पर 2 बार भाजपा को जीत मिली है.कांग्रेस को इन पर मिलती रही है जीतइसी तरह कांग्रेस की बात करें तो 5 बार जोधपुर की सरदारपुरा सीट से कांग्रेस को जीत मिली. जबकि बाड़ी सीट पर 3 बार कांग्रेस जीती. 3 बार झुंझुनू में बागीदौरा, सपोटरा, बाड़मेर, गुढ़ामालानी, फतेहपुर में कांग्रेस ने जीत दर्ज कराई. साथ ही डीग कुमेर, सांचौर, बड़ी सादड़ी, चित्तौड़गढ़, कोटपूतली, सरदारशहर सहित 13 सीटों पर कांग्रेस को जीत मिली है.</t>
+  </si>
+  <si>
+    <t>https://www.aajtak.in/elections/rajasthan-assembly-elections-2023/story/whose-government-formed-decided-by-119-seats-rajasthan-assembly-elections-equation-bjp-congress-ntc-1794508-2023-10-07</t>
+  </si>
+  <si>
+    <t>Millets से बने प्रोडक्ट्स पर GST में कटौती... 18 से घटाकर 5% करने का फैसला, घटेंगे दाम!</t>
+  </si>
+  <si>
+    <t>शनिवार को नई दिल्ली के सुषमा स्वराज भवन में केंद्रीय वित्त मंत्री निर्मला सीतारमण (Nirmala Sitharaman) की अध्यक्षता में जीएसटी परिषद की बैठक (GST Counsil Meeting) हो रही है. ये जीएसटी काउंसिल की 52वीं बैठक है. सरकार ने इसमें एक बड़ा फैसला लिया है, जिसके तहत मिलेट्स से बने प्रोडक्ट्स पर लगने वाले टैक्स की दर में कटौती की गई है. रिपोर्ट के मुताबिक, इन उत्पादों पर अब 18 फीसदी की जगह 5 फीसदी जीएसटी लागू होगा.</t>
+  </si>
+  <si>
+    <t>https://www.aajtak.in/business/utility/story/gst-council-meet-update-tax-rate-on-millets-based-products-slashed-to-5-percent-from-18-percent-says-report-tutc-1794416-2023-10-07</t>
+  </si>
+  <si>
+    <t>सुषमा ग्रुप ने बढ़ती कमर्शियल रियल एस्टेट मांग पर कड़ी पकड़ बनाई</t>
+  </si>
+  <si>
+    <t>पंजाब. भारतीय कमर्शियल रियल एस्टेट क्षेत्र मेट्रोपोलिटन एरिया से अलग महत्वपूर्ण वृद्धि का अनुभव कर रहा है. टियर 2 और टियर 3 शहर इंफ्रास्ट्रक्चर डेवलपमेंट में वृद्धि और बेहतर कनेक्टिविटी के कारण कमर्शियल विकास के केंद्र के रूप में उभरे हैं. इंफ्रास्ट्रक्चर डेवलपमेंटके विकास पर सरकार के फोकस से रोजगार के अवसर पैदा हुए हैं. डिजिटलीकरण और ई-कॉमर्स के बढ़ने के साथ-साथ टियर 2 और 3 शहरों में कमर्शियल स्पेसेस की आवश्यकता बढ़ गई है. स्थानीय कंपनियों और रिटेल को भी इस परिवर्तन से लाभ हुआ है, जिससे कमर्शियल रियल एस्टेट क्षेत्र को काफी बढ़ावा मिला है.बेहतर सड़कें, ट्रेनें और नए हवाई अड्डों ने कनेक्टिविटी को बढ़ाया है. इससे टियर 2 शहरों में ऑफिस इंफ्रास्ट्रक्चर डेवलपमेंट में क्रांति आई है. ऑफिस स्पेस की मांग के अलावा टियर 2 शहरों में रिटेल कंजप्शन में बढ़ोतरी देखी जा रही है. बढ़ती आय, "वर्क फ्रॉम होम" की प्रवृत्ति और अधिक आय ने निवासियों की खरीदने की क्षमता को बढ़ाया है. लीडिंग राष्ट्रीय और अंतर्राष्ट्रीय रिटेल ब्रांड टियर 2 शहरों को लक्षित करके इसका लाभ उठा रहे हैं, जिससे इन क्षेत्रों में रिटेल स्पेस विकास के लिए अनुकूल बन गए हैं.उत्तर भारत के पंजाब में चंडीगढ़ के बाहरी इलाके जिनमें मोहाली और पंचकूला शामिल हैं, ट्राइसिटी क्षेत्र में प्रगति देखी गई है. प्रमुख राजमार्गों और कमर्शियल हब्स तक आसान पहुंच होने के कारण ट्राइसिटी ने किराये की दरों और रेजिडेंशियल रियल एस्टेट रिटर्न में तेज वृद्धि के कारण आकर्षित किया है. आवासीय आबादी में वृद्धि और इंफ्रास्ट्रक्चर डेवलपमेंट में वृद्धि ने स्वाभाविक रूप से कमर्शियल विकास की मांग को प्रेरित किया है.</t>
   </si>
   <si>
     <t>https://www.aajtak.in/impact-feature/story/sushma-group-tightens-grip-on-rising-commercial-real-estate-demand-1793480-2023-10-06</t>
   </si>
   <si>
-    <t>Highway Man of India: After Prime Minister Modi, now biopic will be made on Nitin Gadkari</t>
-  </si>
-  <si>
-    <t>The trend of biopic is going on in films. Films are being made on many famous personalities from Bollywood to South. A new biopic was also announced on Friday and it is getting a lot of discussion on social media. The reason for this discussion is that this biopic is based on the life of one of the most popular leaders of the country.</t>
-  </si>
-  <si>
-    <t>entertainment</t>
-  </si>
-  <si>
-    <t>https://www.aajtak.in/entertainment/news/story/after-pm-modi-biopic-on-union-minister-nitin-gadkari-titled-highway-man-of-india-tmovs-1793936-2023-10-06</t>
-  </si>
-  <si>
-    <t>Nobel Prize 2023: Jailed Nargis Mohammadi received the Nobel Peace Prize, the Iranian government had arrested her 13 times</t>
-  </si>
-  <si>
-    <t>Human rights activist Nargis Mohammadi, who raised her voice against atrocities against women of Iran, has been awarded the Nobel Peace Prize. She fought a long battle for promoting human rights in Iran as well as for freedom for all. For this, Nargis has been honored with the Nobel Peace Prize for the year 2023. Nargis Mohammadi is the name of that brave woman, whom the government of Iran She was arrested 13 times, but her high spirits did not diminish. Not only this, Nargis spent 31 years in jail. He was sentenced to 154 lashes. When Nargis Mohammadi was given this highest award, she was still in jail. According to the Nobel Prize Committee, Nargis Mohammadi had to pay a heavy price for her struggle. According to the Front Line Defenders rights organization, the Iranian human rights activist is in Evin prison of Tehran. I am serving many sentences. Nargis Mohammadi is also accused of spreading misleading propaganda against the Iranian regime. Nargis Mohammadi's activism began in the 1990s, when, as a physics student, she started advocating for equality and women's rights. The Nobel Committee said that Nargis Mohammed has consistently opposed discrimination and oppression. Nargis advocated the struggle for the right to live a dignified life. This is such an issue in Iran, for which one often has to face harassment, jail sentence, torture and even death in this country.</t>
-  </si>
-  <si>
-    <t>https://www.aajtak.in/world/story/iran-nargis-mohammadi-receives-nobel-peace-prize-raises-voice-against-atrocities-on-women-ntc-1793790-2023-10-06</t>
-  </si>
-  <si>
-    <t>'Sometimes underwear in the train, sometimes pistol in the hospital...', the history of JDU MLA Gopal Mandal's uproar</t>
-  </si>
-  <si>
-    <t>JDU MLA Gopal Mandal, who is in the headlines for his behaviour, is in the news this time for his bullying. He had reached Janata Dal United Office in Patna. Here the questions of the journalists were, 'MLA, why did you go to the hospital waving the pistol?' On this, the MLA's temper became so high that he lost his temper and started abusing. MLA Gopal Mandal started saying - 'Yes, we have (still) filed the charges, what should we show. What do you want to say... I keep a pistol. After this the question arose, 'What was the need to carry a pistol to a place like a hospital? Will the MLA wave with a pistol in his hand? 'Yes, yes... we will wave... are you guys our father?' It seemed as if this question had attacked the honor of the MLA. The MLA said angrily - 'Yes, yes... we will wave... are you our father... run...$$$''. The surprising thing is that at the time when the MLA was giving proof of his dominance at the gate of JDU office, at that time the head of the state Nitish Kumar was present inside the office. Pistol in hand, security guard and MLA in the hospital. In fact, recently, Gopalpur Assembly Area MLA Narendra Kumar Neeraj alias Gopal Mandal had reached Jawaharlal Nehru Medical College, Mayaganj with a pistol. Security guards were also with him. People were seen scared after seeing the revolver in the MLA's hand. After this, he went back from there along with his security guard with a pistol in his hand. This incident happened in the train in the year 2021, September. This form of MLA Gopal Mandal has not been seen for the first time. Earlier in the month of September 2021 also, he had shown his dominance. Then he was going from Patna to Delhi by Tejas train. During the journey, he did something that created an uproar. When the passengers in the train raised objection, the MLA's temper became high. Then it was alleged that MLA Saheb got into a fight and threatened to shoot. The MLA was roaming in the train in underwear.</t>
-  </si>
-  <si>
-    <t>https://www.aajtak.in/india/bihar/story/patna-jdu-mla-gopal-mandal-pistol-incident-abused-journalists-before-it-he-was-in-underwear-in-tejas-train-lclp-1793808-2023-10-06</t>
-  </si>
-  <si>
-    <t>Bajrang Punia, who entered Asiad without trial, got a big shock, did not even get bronze</t>
-  </si>
-  <si>
-    <t>Bajrang Punia Asian Games Results: Bajrang Punia, one of the biggest hopes of gold medal in the ongoing Asian Games in Hangzhou, has lost in the semi-final match. After his defeat, many people got angry on social media. Bajrang, the previous Asian Games champion, had not participated in any competitive match before participating in these games. Then in the bronze medal match, Bajrang was defeated by Japanese wrestler K. Yamaguchi defeated 10-0. That means Bajrang will return home without a medal. Bajrang Punia (Free Style 65kg) has lost 1-8 to former world champion Iranian wrestler Amouzad Khalili Rahman (AMOUZADKHALILI Rahman) in the semi-finals. Bajrang did not seem to be in any rhythm during the entire match. None of Bajrang's moves worked. He was continuously losing points one after the other. As a result, he was defeated. Bajrang was among the wrestlers who protested and sat on strike against outgoing WFI (Wrestling Federation of India) chief Brij Bhushan Sharan Singh. He was also criticized for including him in the Indian team for these Games without trials. Click for full coverage of Asian Games. Vishal Kaliraman had won the 65 kg trials, but he was kept standby in this category. His family and many Panchayats believed that Bajrang should not have got a chance in these sports without trials. Bajrang, the previous Asian Games champion, had not participated in any competitive match before participating in these games. He was trying to overcome his shortcoming in 'leg defence'. He got almost no benefit from 18 days of practice and training session in Kyrgyzstan. People were disappointed when Bajrang did not win the gold. As soon as Bajrang Punia came to play the semi-finals, all the fans felt that he would defeat the Iranian wrestler and go straight to the finals, but He lost. Some people even wrote on social media that this is why they wanted direct entry. Although there were many people who supported Bajrang. Look, he talks a lot and can't do anything in wrestling... He got a gold medal destroyed, it would have been better to send him to someone else!! @BajrangPunia https://t. co/Ltt5HUN3CW</t>
-  </si>
-  <si>
-    <t>https://www.aajtak.in/sports/news/story/bajrang-punia-who-entered-asian-asian-games-hangzhou-without-trial-got-big-shock-lost-in-semi-final-fans-got-angry-after-not-winning-gold-tspo-1793566-2023-10-06</t>
-  </si>
-  <si>
-    <t>Misssion Raniganj Review: Akshay Kumar's mission of entertainment, thrill and suspense becomes 'successful'</t>
-  </si>
-  <si>
-    <t>A meme about Akshay Kumar remains quite viral. Whatever event happens in any country, Akshay immediately takes the copyright of his film on it. Akshay Kumar's film 'Mission Raniganj' is also based on a Bharat rescue case. However, this story is not of today, but of the bravery of Jaswant Singh Gill, a coalmines officer in the 90s who came into the limelight by the name of Capsule Singh Gill. Here is the story: About 70 laborers get trapped due to a burst water pipe inside the coal mines located in Raniganj. In this entire episode, Mines Officer Jaswant Singh Gill, with his bravery and wisdom, rescues the trapped workers. Jaswant Gill became the hero of that time because of his wit. Akshay is coming to entertain you by turning this four-day incident into a film.</t>
-  </si>
-  <si>
-    <t>https://www.aajtak.in/entertainment/film-review/story/misssion-raniganj-review-read-how-akshay-kumar-and-his-actors-team-has-done-phenomenal-job-ntmov-1793819-2023-10-06</t>
-  </si>
-  <si>
-    <t>'Mission Raniganj' got cooler response than 'Selfie' in booking, will his new film become Akshay's biggest flop?</t>
-  </si>
-  <si>
-    <t>After the success of 'OMG 2', it seemed that the public is again excited to see Akshay Kumar on the big screen. Today Akshay's new film 'Mission Raniganj' is being released in theaters and the kind of response it is getting is not good at all. Akshay Kumar's films based on 'real life incidents' have been doing good business in theaters. . 'Mission Raniganj' is also based on a real incident. The story of the film is based on mining engineer Jaswant Singh Gill who saved the lives of 65 people trapped in a coal mine. Akshay is playing the character of the same Jaswant Singh Gill in 'Mission Raniganj'. But due to Akshay's stardom, from the beginning there was not the same fun atmosphere around this film as there is for his films. Now this film has reached the theatres, but its business on the first day does not seem to be very strong. Advance booking of 'Mission Raniganj' Advance booking for Akshay's film started this week. Reports say that even after a whole week has passed, only about 7 thousand tickets of 'Mission Raniganj' have been booked in the national chains. Whereas SACNILC's report shows that only a little more than 36 thousand tickets have been booked in advance for the film. The advance gross collection of 'Mission Raniganj' from this booking is less than Rs 1 crore.</t>
-  </si>
-  <si>
-    <t>https://www.aajtak.in/entertainment/bollywood-news/story/mission-raniganj-fails-to-impress-in-advance-booking-akshay-kumar-set-for-another-flop-show-tmovs-1793514-2023-10-06</t>
-  </si>
-  <si>
-    <t>Exclusive Interview: People call me a witch, I feel good to hear these words, said Rhea Chakraborty</t>
-  </si>
-  <si>
-    <t>Bollywood diva Rhea Chakraborty is currently seen as a gang leader in the reality show Roadies. The actress remains in the headlines for her personal and professional life. On Thursday, he participated in 'India Today Conclave 2023' and answered every question with frankness. For the first time after the death of Sushant Singh Rajput in 2020, Rhea gave her first frank interview on Sushant Rajput's suicide, nights spent in jail, social media trolling. How much life has changed. Talking to session moderator Rajdeep Sardesai, Rhea said that in the last three years His life has changed a lot. He said- When you interviewed me three years ago, I was not invited. Now I was invited. Life is a circle. Now I am talking to the media. Life is moving forward. The New Me is very different. Earlier, at the age of 31, I used to feel like an 81-year-old woman inside me. In difficult times, you can either become Devdas or move forward by taking the help of therapy. I took the help of therapy. The actress says that no one's opinion matters to her. The voice inside me said that everything would be fine. Every story has two beginnings. One is what we see and the other is what we cannot see. Was there really any role in Sushant Rajput's death? Talking about Sushant Singh Rajput's death, she said - When I see people's faces, some people Let's see from the perspective that I have done something. Or something is really wrong with me. I can read people's faces. I liked the name Chudail. It didn't make any difference to me. Who knows, I actually know black magic. People say in society that if a man drinks too much after marriage, then people say that all this happened because of the arrival of a woman. If her career declines, then people say that look, this has happened since the time she came. Why do people commit suicide in Hindi cinema? Riya says- People here do not understand mental health conditions. He was successful, but I don't know why his mental health was bad. Mental health was taken the wrong way. Even successful people can become depressed. I don't know why Sushant took his life. But we know what he went through. I don't want to talk about NCB and drugs. How did you spend your days in jail? Talking about jail, the actress said that jail is interesting because you get separated from the society. I have learned a lot in jail. I was under trial. I was not guilty. I learned how we keep running to the movies. But she is living in jail.</t>
-  </si>
-  <si>
-    <t>https://www.aajtak.in/entertainment/bollywood-news/story/exclusive-rhea-chakraborty-interview-sushant-singh-rajput-death-chudail-naagin-dance-bhaykhala-jail-ncb-drugs-troll-tmovb-1793232-2023-10-05</t>
-  </si>
-  <si>
-    <t>Kriti Sanon's mother couldn't believe it when she got the National Award, she got a prank call</t>
-  </si>
-  <si>
-    <t>Bollywood actress Kriti Sanon lives in the hearts of millions of people. The actress was awarded the National Award for the film 'Mimi'. This was the best moment of the actress's life. But do you know how Kriti Sanon reacted when she got a call from the Ministry for the National Award? Recently, Kriti told about this in India Today Conclave 2023 Mumbai.</t>
-  </si>
-  <si>
-    <t>https://www.aajtak.in/entertainment/bollywood-news/story/kriti-sanon-reveals-of-parents-on-national-award-winning-call-from-ministry-thought-it-was-a-prank-call-tmovk-1793358-2023-10-05</t>
+    <t>एक जज-दूसरा क्रिमिनल... दो Ex Classmate की मुलाकात और हिल गया इंटरनेट!</t>
+  </si>
+  <si>
+    <t>ज़िंदगी बहुत लंबी है, मगर दुनिया तो गोल है... ये बातें आपने बचपन से अभी तक कई बार सुनी होंगी. इस बड़ी सी ज़िंदगी में हम बहुत से लोगों से मिलते हैं. कुछ के साथ ताउम्र संपर्क बना रहता है, तो कुछ का साथ बचपन तक ही सिमटकर रह जाता है. मगर ज़हन में उसकी धुंधली यादें ज़रूर ज़िंदा रह जाती हैं. खासतौर पर उस ज़माने के लोगों के लिए जो बिना सोशल मीडिया, इंटरनेट के ही बड़े हुए हैं. आपके भी स्कूल के ऐसे कई दोस्त रहे होंगे, जिनके साथ आपने लंच किया, गेम्स खेले, स्कूल के बाद उसके साथ घर तक गए... मगर क्या आज भी वो दोस्त आपके साथ हैं?शायद नहीं. मगर उनकी वो बचपन वाली झलक ज़रूर याद होगी. वो स्कूल ड्रेस, वो टिफिन बॉक्स और वो स्कूल का दरवाज़ा. लेकिन अगर आपकी उसी दोस्त से एक बार फिर मुलाकात हो जाए, 10, 20 या 30 साल बाद, तो क्या आप उसे पहचान पाएंगे? मेरे ख्याल में ज़रूर, अगर आपको उसका नाम याद हो या उसके स्कूल-शहर का नाम पता चल जाए. कुछ ऐसा ही इन दो लोगों के साथ हुआ, जिनके बारे में हम आज बात करने वाले हैं. इनकी कहानी सुनकर पूरी दुनिया एक वक्त पर भावुक हो गई थी. मगर अब फिर कई साल बाद इनकी याद लोगों के ज़हन में ताज़ा हो उठी है.तो कहानी को शुरू से शुरू करते हैं... इसके दो किरदार हैं: पहला- आर्थुर बूथ और दूसरा- माइंडी ग्लेजर. बाकी टीनेजर्स की तरह ही आर्थुर का सपना एक सफल करियर बनाना था. वो गणित और विज्ञान में काफी अच्छे थे. परिवार और दोस्तों से हमेशा कहा करते थे कि मुझे बड़ा होकर न्यूरोसर्जन बनना है. वो मियामी बीच (अमेरिका के फ्लोरिडा राज्य में स्थित मियामी) के जिस नॉटिलस मिडिल स्कूल में पढ़ा करते थे, वहीं पर माइंडी ग्लेजर भी पढ़ती थीं. उनके भी कुछ सपने थे. पहले तो वो पशु चिकित्सक बनना चाहती थीं. लेकिन फिर वकील बनने का सोचा. वो लॉ स्कूल गईं और टॉप की वकील बन गईं.दुनिया ने देखी दोनों की मुलाकातये दोनों ही अपने अपने करियर के लिए ज़िंदगी के दो अलग रास्तों पर चल दिए. फिर दशकों बाद इनकी एक बार फिर मुलाकात हुई. माइंडी ने आर्थुर को देखते ही पहचान लिया. वो बोलीं- तुम तो वही हो जिसके साथ में फुटबॉल खेला करती थी. मगर तुम यहां कैसे? दरअसल ये मुलाकात कोर्ट रूम में हुई थी. जिसमें माइंडी जज थीं और उनके सामने थे अपराधी के रूप में खड़े आर्थुर. कोर्ट रूम का वीडियो पूरी दुनिया ने देखा.Man facing charges in court starts crying when he recognizes the judge from middle school pic.twitter.com/Ckj93TM9WHआर्थुर को जुए और ड्रग्स की लत थी. उन्होंने कई लूट की घटनाओं को अंजाम दिया था. वो पुलिस की गिरफ्त से भी भागे. सुनवाई शुरू होने पर वो ऐसे बर्ताव कर रहे थे, मानो उन्हें अपने किए पर कोई पछतावा ही न हो. मगर जब जज यानी कि माइंडी ने उनसे सवाल पूछा कि क्या आप नॉटिलस मिडिल स्कूल में पढ़ा करते थे. ये सुनकर आर्थुर फूट फूटकर रोने लगे. वो बुरी तरह टूट गए. कोर्ट रूम के इस वीडियो में दुनिया ने देखा कि कैसे स्कूल में पढ़ने वाले उन दोनों बच्चों में से एक ने तो अपना सपना पूरा कर लिया, मगर दूसरा ऐसा नहीं कर पाया.पूर्व क्लासमेट जब आमने सामने थे49 साल के आर्थुर के सामने उनकी पूर्व क्लासमेट माइंडी थीं. ये मुलाकात आर्थुर के स्कूल छोड़ने के बाद पहली बार हो रही थी. उनकी एक लंबी क्रिमिनल हिस्ट्री रही है. उन्होंने अपनी कम से कम आधी एडल्ट लाइफ जेल में ही गुज़ारी. वो ड्रग्स और सट्टेबाजी की लत के कारण अपराध की दुनिया में आए. उनका मकसद कम वक्त में ज़्यादा से ज़्यादा पैसा कमाना था. वो 17 साल की उम्र के बाद से ही जेल से अंदर बाहर होते रहे. जिसके कारण वो करियर नहीं बना पाए, जिसकी कभी उम्मीद किया करते थे. उनके परिवार का कहना है कि अगर वो गलत लत में न पड़ते तो जहां पहुंचे, वहां न होते.आर्थुर चोरी और जेल से भागने के आरोप में 43,000 डॉलर के मुचलके के साथ जेल में थे. इसे माइंडी ने सेट किया था. इससे पिछले अपराध में गिरफ्तार होने के बाद वो केवल 7 महीने ही जेल से बाहर रहे थे. यहां हम साल 2015 की बात कर रहे हैं. ये वीडियो तभी का है. इस वक्त से भी 35 साल पहले विलियम जे. ब्रायंट एलीमेंट्री स्कूल में अच्छे अंक लाने के बाद ही आर्थुर नॉटिलस मिडिल स्कूल में दाखिल हो पाए थे. यहीं वो माइंडी से भी मिले थे. ये 1970 के दशक में मियामी के सबसे अच्छे स्कूलों में से एक था. आर्थुर ने उस वक्त खुद से स्पैनिश भाषा सीखी. सीधे हाथ में छह उंगलियों के साथ पैदा हुए थे, तो परिवार को लगा कि जीवन में कुछ अच्छा ही करेंगे.1980 में आर्थुर बूथ ने नॉटिलस छोड़ाये बात 1980 के दशक की है, जब आर्थुर अच्छे अंकों के साथ नॉटिलस छोड़कर चले गए. वो मियामी बीच हाई स्कूल में भर्ती हुए. यहां वो 11वीं तक पढ़े. फिर ड्रॉपआउट हो गए. उस वक्त उन्हें सट्टेबाजी की लत लग चुकी थी. बस यहीं से उनकी ज़िंदगी बर्बाद होना शुरू हो गई. वो घरों और वेयरहाउस में घुसपैठ कर चोरी करने लगे. कोर्ट के रिकॉर्ड बताते हैं कि 18 साल का होने पर वो बड़ी चोरी के आरोप में जेल गए. बाद में ड्रग्स की लत लग गई. परिवार ने उन्हें इस गर्त से निकालने की खूब कोशिशें की, लेकिन वो नाकाम रहे. वो बस ड्रग्स के लिए पैसे चाहते थे, जिसके लिए उसकी तस्करी और चोरी करना ही एक रास्ता था.1988 में 22 साल की उम्र में आर्थुर को चोरी और डकैती करने पर 20 साल की कैद हुई. पैरोल पर बाहर आने से पहले वो 10 साल तक जेल में रहे. एक तरफ आर्थुर इन सबमें पड़ चुके थे. तो दूसरी तरफ माइंडी ने मियामी यूनिवर्सिटी से आर्ट्स में बी.ए. किया. इसके बाद उन्होंने सेंट थॉमस यूनिवर्सिटी स्कूल ऑफ लॉ से कानून की पढ़ाई की और 1991 में टैक्स लॉ में स्पेशलाइजेशन के साथ जे.डी. में ग्रेजुएशन की उपाधि हासिल की. उन्होंने इसके बाद अपनी प्रैक्टिस शुरू कर दी. बाद में लॉ स्कूल से उन्होंने एस्टेट प्लानिंग में मास्टर डिग्री भी प्राप्त की.वहीं दूसरी तरफ आर्थुर 32 साल की उम्र में रिहा हुए. तब ड्रग्स की लत तो जेल में रहने से छूट चुकी थी लेकिन सट्टेबाजी का शौक अब भी था. बाहर आने के एक साल के भीतर ही डकैती के अपराध में फिर जेल गए. बाकी की सजा भी पूरी करनी थी. 1997 में सड़क साफ करने के लिए बाकी कैदियों के साथ मियामी में थे. तब थोड़ी ही सजा बची थी लेकिन फिर भी जेल से भाग गए. दो महीने तक परिवार ने छिपाए रखा लेकिन फिर पकड़े गए. वहीं माइंडी साल 2000 में जज बन चुकी थीं. अब अगले 15 साल तक यानी 2015 तक आर्थुर बूथ जेल से अंदर बाहर होते रहे.माइंडी के शब्दों ने बदली ज़िंदगी</t>
+  </si>
+  <si>
+    <t>https://www.aajtak.in/trending/story/former-classmates-meeting-courtroom-viral-video-judge-criminal-life-changed-arthur-booth-case-mindy-glazer-us-tstsh-1794125-2023-10-07</t>
+  </si>
+  <si>
+    <t>देवरिया में प्रेम यादव का घर गिराए जाने की तैयारी? अखिलेश बोले- कोई भी ऐसा काम ना करें, जिससे माहौल बिगड़े</t>
+  </si>
+  <si>
+    <t>यूपी के देवरिया हत्याकांड का मामला गरमा गया है. विपक्ष के हमले के बीच योगी सरकार ने एक्शन लेना शुरू कर दिया है. इस मामले में प्रेमचंद्र यादव और उनके परिजन के घर पर ध्वस्तीकरण का नोटिस चस्पा होने के बाद सपा अध्यक्ष अखिलेश यादव का बयान आया है. अखिलेश ने एक्स पर लिखे पोस्ट में योगी सरकार को इशारों में एहतियात बरतने की सलाह दी है और शांति बनाए रखने की दिशा में कदम उठाने की अपील की.बता दें कि देवरिया कांड में अब प्रेम यादव के घर पर बुल्डोजर चलाए जाने की तैयारी है. प्रशासन की तरफ से प्रेम यादव के घर के बाहर एक नोटिस चस्पा किया गया है, जिसमें अवैध निर्माण का जिक्र किया गया है. नोटिस में लिखा है कि सरकारी जमीनों पर अतिक्रमण कर अवैध तरीके से पक्का निर्माण कर कब्जा किया गया है. 7 अक्टूबर को तहसीलदार की कोर्ट में पेश होकर कारण बताओ नोटिस का जवाब देना होगा. अन्यथा तहसील प्रशासन एकपक्षीय आदेश जारी करेगा और तय अवधि में अतिक्रमित जमीन या मकान के हिस्से को ढहा दिया जाएगा.'वातावरण को तनावमुक्त रखें'प्रशासन की इस कार्रवाई के बाद सपा अध्यक्ष अखिलेश यादव ने ट्वीट किया है. अखिलेश ने लिखा, देवरिया कांड में अगर किसी भी पक्ष के साथ अन्याय हुआ तो ये भी एक अपराध होगा. शासन-प्रशासन का दायित्व है कि वो वातावरण को तनावमुक्त करे और रखे. ऐसा कोई भी काम ना करे, जो माहौल बिगाड़े. शांति की कोशिश का अंत किसी की हत्या या हत्या का प्रतिकार नहीं हो सकता और ना ही ऐसी वारदातें किसी सत्ता के लिए सियासी फायदा उठाने का मौका होनी चाहिए.'जमीन को लेकर दोनों पक्षों में चल रहा था विवाद'बता दें कि राजस्व टीम ने पूर्व जिला पंचायत सदस्य प्रेम चंद यादव समेत पांच आरोपियों के मकान पर बेदखली का नोटिस चस्पा किया है. दो दिन पहले ही लेखपाल ने उत्तर प्रदेश राजस्व संहिता 2006 की धारा 67 के तहत तहसीलदार कोर्ट में 5 के खिलाफ वाद दाखिल किया था, जिसके बाद यह कार्रवाई की गई है. गौरतलब है कि फतेहपुर ग्राम के लेड़हा टोला के रहने वाले सत्य प्रकाश दुबे और अभयपुर टोला के रहने वाले प्रेमचंद यादव के बीच जमीन का विवाद चल रहा था. इसमें सत्य प्रकाश के के छोटे भाई ज्ञान प्रकाश ने अपने हिस्से की जमीन प्रेम चंद को बैनामा कर दी थी. इसी को लेकर आए-दिन दोनों पक्ष में झड़प हो रही थी.देवरिया कांड में अगर किसी भी पक्ष के साथ अन्याय हुआ तो ये भी एक अपराध होगा। शासन-प्रशासन का दायित्व है कि वो वातावरण को तनावमुक्त करे व रखे और ऐसा कोई भी काम न करे जो माहौल बिगाड़े।शांति की कोशिश का अंत किसी की हत्या या हत्या का प्रतिकार नहीं हो सकता और न ही ऐसी वारदातें किसी…'सरकारी जमीन पर कब्जे की शिकायत थी'सत्य प्रकाश की तरफ से तहसील और पुलिस-प्रशासन में शिकायत की गई थी कि प्रेम यादव ने सरकारी जमीन पर मकान खड़ा करवा लिया है. ये जमीन वन विभाग और सरकारी स्कूल की है. पुलिस- प्रशासन में अच्छी पकड़ होने के चलते फर्जी रिपोर्ट लगाकर मामले का निस्तारण किया दिया जाता है.'20 अभियुक्तों को जेल चुकी पुलिस'</t>
+  </si>
+  <si>
+    <t>https://www.aajtak.in/uttar-pradesh/story/preparation-to-demolish-prem-yadav-house-in-deoria-akhilesh-yadav-said-do-not-do-anything-that-spoils-atmosphere-ntc-1794337-2023-10-07</t>
+  </si>
+  <si>
+    <t>जो सुन नहीं सकते, उनके लिए साइन-लैंग्वेज में आएगी रवि तेजा की फिल्म... 'द कश्मीर फाइल्स' ने भी किया था ऐसा</t>
+  </si>
+  <si>
+    <t>ज्यादा से ज्यादा दर्शकों तक फिल्म पहुंचाने की कोशिश ने पैन इंडिया के फ़ॉर्मूले की शुरुआत की. साउथ की फिल्म इंडस्ट्रीज से लेकर बॉलीवुड की फिल्में भी अब एक साथ कई भाषाओं में रिलीज होने लगी हैं. कई ऐसी भी फिल्में बन रही हैं जिन्हें मेकर्स एक साथ दस भाषाओं में रिलीज करने वाले हैं. अलग-अलग भाषा बोलने वाले दर्शकों के लिए तो फिल्में तैयार हो ही रही हैं लेकिन डिफरेंटली एबल्ड या भिन्न शारीरिक क्षमताओं वालों तक भी सिनेमा पहुंचने लगे तो कितना बेहतरीन होगा!तेलुगू स्टार रवि तेजा की पैन इंडिया फिल्म 'टाइगर नागेश्वर राव' इसी महीने रिलीज होने को तैयार है. इस फिल्म से जुड़ीएक ऐसी जानकारी सामने आई है जिसके लिए मेकर्स की तारीफ की जानी चाहिए. रवि तेजा की ये फिल्म ऑरिजिनल तेलुगू वर्जन समेत हिंदी और अन्य भाषाओं में तो रिलीज होगी ही. साथ ही, इसे साइन लैंग्वेज में भी रिलीज किया जाएगा. इससे वो लोग भी फिल्म देख पाएंगे, जो सुन नहीं सकते.'टाइगर नागेश्वर राव' पहली भारतीय फिल्म बनने जा रही है जो थिएटर्स में साइन लैंग्वेज में रिलीज होगी. हालांकि इससे पहले भी कई फिल्में इस तरह की पहल करती रही हैं और इन्हें ऑरिजिनल रिलीज के बाद भारतीय साइन लैंग्वेज में भी रिलीज किया गया. भारत की ये साइन लैंग्वेज 1986 में डेवलप की गई थी. सिर्फ सुन पाने में अक्षम लोग ही नहीं, एजुकेशन से जुड़े बहुत लोग भी ये साइन लैंग्वेज यूज करते हैं.द कश्मीर फाइल्सपिछले साल की धमाकेदार हिट 'द कश्मीर फाइल्स' ओटीटी पर भारतीय साइन लैंग्वेज के साथ रिलीज हुई थी. ये पहली कमर्शियल बॉलीवुड फिल्म थी जिसने इस तरह की कोशिश की थी. इस मौके को यादगार बनाने के लिए 'द कश्मीर फाइल्स'की एक स्पेशल स्क्रीनिंग भी रखी गई थी जिसमें 500 ऐसे लोगों ने हिस्सा लिया था जो सुन नहीं सकते. इस स्क्रीनिंग में डायरेक्टर विवेक अग्निहोत्री, उनकी पत्नी और फिल्म की एक्ट्रेस पल्लवी जोशी और एक्टर दर्शन कुमार भी मौजूद थे.83रणवीर सिंह की फिल्म '83', 2021 में थिएटर्स में रिलीज हुई थी. डेफ कम्यूनिटी के लिए काम करने वाली एक संस्था इंडिया साइनिंग हैंड्स (ISH) ने इस फिल्म को साइन लैंग्वेज में रिलीज करने के लिए 83 के मेकर्स से हाथ मिलाया था. उनकी इस कोशिश को '83' के स्टार रणवीर सिंह ने भी सपोर्ट किया था. रणवीर ने साल 2020 में साइन लैंग्वेज को भारत की ऑफिशियल भाषाओं की लिस्ट में जगह देने के लिए डाली गई एक पिटीशन को भी सपोर्ट किया था.</t>
+  </si>
+  <si>
+    <t>https://www.aajtak.in/entertainment/news/story/ravi-teja-tiger-nageswara-rao-releasing-in-sign-language-the-kashmir-files-other-hindi-films-did-this-too-tmovs-1794269-2023-10-07</t>
+  </si>
+  <si>
+    <t>बिग बॉस 17 में होगी एडल्ट कंटेंट स्टार शिल्पा सेठी की एंट्री, शो से पूरा होगा ख्वाब?</t>
+  </si>
+  <si>
+    <t>बिग बॉस फैंस को हर साल शो के नए सीजन का बेसब्री से इंतजार रहता है. अब फैंस दिल थाम कर 'बिग बॉस 17' के लिए तैयार बैठे हैं. शो के लिए अब तक कई बड़े-बड़े नाम सामने आ चुके हैं. टेलीविजन एक्ट्रेसेस और यूट्यूबर्स के बीच बिग बॉस में एडल्ट कंटेंट क्रिएटर शिल्पा सेठी की भी एंट्री होने वाली है.बिग बॉस हाउस में आएंगी शिल्पा सेठीसलमान खान एक बार फिर पुराने स्टाइल और नए तेवर के साथ बिग बॉस 17 में धमाल मचाने को तैयार हैं. इस सीजन शो में कई बड़े और जाने-माने चेहरे दिखेंगे. इस लिस्ट में एडल्ट कंटेंट क्रिएटर शिल्पा सेठी का नाम भी जुड़ गया है. सनी लियोनी और पामेला एंडरसन के बाद शिल्पा शो की सबसे स्ट्रांग एडल्ट कंटेंट स्टार्स में से एक हैं.</t>
+  </si>
+  <si>
+    <t>https://www.aajtak.in/entertainment/television/story/adult-content-star-shilpa-sethi-confirmed-to-enter-bigg-boss-17-salman-khan-tmovb-1794437-2023-10-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">अयलान: निक्कर पहने, रेडियो सुनते एलियन की मजेदार कहानी, टीजर से ही शानदार दिख रही है शिवा कार्तिकेयन की फिल्म </t>
+  </si>
+  <si>
+    <t>ऋतिक रोशन की 'कोई मिल गया' आज भी फैन्स की फेवरेटफिल्म है. इस फिल्म की कहानी में आया एलियन अपने आप में एक यादगार किरदार था. ऋतिक के कैरेक्टर के साथ जादू की बॉन्डिंग वाले इमोशनल मोमेंट आज भी लोगों को इमोशनल कर देते हैं. अब तमिल इंडस्ट्री से एक फिल्म आ रही है जिसमें एलियन धरती पर आएगा. तमिल इंडस्ट्री के पॉपुलर स्टार शिवा कार्तिकेयन के लीड रोल वाली इस फिल्म का नाम है 'अयलान'. तमिल के शब्द अयलान का मतलब होता है एलियन.'अयलान' का टीजर आ गया है. फिल्म के बारे में आ रहीं अपडेट्स ही बता रही थीं कि ये एक बहुत एक्साइटिंग प्रोजेक्ट होने वाला है. और 'अयलान' का टीजर देखने के बाद ही आपका मन जल्दी से फिल्म देख डालने का करने लगेगा. टीजर से फिल्म की जो झलक मिल रही है वो शानदार है. ये नया एलियन जितना मजेदार है, उतना पावरफुल भी. और अपने इंसानी दोस्तों के साथ इसकी दोस्ती देखने लायक है. फिल्म के विजुअल्स भी बहुत दमदार हैं.मजेदार साइंस फिक्शन कहानी है 'अयलान'फिल्म का टीजर एक खास पावर सोर्स से शुरू होता है. डायनासोर के अंडों जैसा लगने वाला ये पावर सोर्स धरती पर ही है. टीजर में आगे शरद केलकर का किरदार एक एडवांस रोबोट के साथ दिखता है. ये सीक्वेंस ऐसा नजर आता है कि शरद फिल्म में नेगेटिव रोल कर रहे हैं. शायद उनका किरदार एडवांस तकनीक की मदद से अपने गलत इरादों को अंजाम देना चाहता है. 'अयलान' के टीजर में बहुत कुछ है जो एक सॉलिड साइंस-फिक्शन फिल्म के लिए एक्साइटमेंट बढ़ाता है.एलियन सभ्यता, स्पेस शिप, तमाम तरह की एडवांस टेक्नोलॉजी और सुपर पावर वाले लोग इस टीजर में नजर आते हैं. और इसी बीच एक स्पेसशिप से फिल्म का एलियन 'अयलान' नजर आता है. एलियन वाले सीन्स देखकर ही नजर आता है कि फिल्म का VFX बहुत बेहतरीन है. 'अयलान' के विजुअल्स एक ऐसा संसार तैयार कर रहे हैं, जिसमें दर्शकों को खो जाने का मन करेगा. कहानी में एलियन एकदम लाइव जीव लगता है और उसके चेहरे के बदलने एक्सप्रेशन बहुत कमाल लगते हैं.टीजर देखकर ऐसा लगता है कि पावर सोर्स से अलग-अलग टेक्नोलॉजी बना रहे साइंटिस्ट के एक्स्परिमेंट में कोई सिग्नल स्पेस में चला जाता है, जिससे अयलान के ग्रह के लोग धरती पर आते हैं. टीजर सेऐसा लगता है कि अयलान और उसके लोगों को, फिल्म में नजर आ रहे वैज्ञानिकों ने कब्जे में कर लिया है, लेकिन शिवा कार्तिकेयन का किरदार अयलान को छुड़ाने में कामयाब हो जाता है और अपने साथ ले आता है. अब अयलान का मिशन अपने ग्रह पर लौटना या अपने साथियों को मदद के लिए बुलाना है. लेकिन ये एलियन किसी भी तरह से मानवों को नुकसान नहीं पहुंचाना चाहता, बल्कि उनका अच्छा दोस्त बन जाता है.</t>
+  </si>
+  <si>
+    <t>https://www.aajtak.in/entertainment/news/story/ayalaan-teaser-an-alien-in-shorts-vest-listening-radio-is-coolest-thing-in-indian-cinema-today-film-looks-immersive-tmovs-1794368-2023-10-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">पहले ही दिन फेल हुआ अक्षय का 'मिशन रानीगंज', खिलाड़ी कुमार को मिली पिछले 10 साल की सबसे छोटी ओपनिंग! </t>
+  </si>
+  <si>
+    <t>बॉलीवुड के टॉप स्टार्स में से एक, अक्षय कुमार का समय बॉक्स ऑफिस पर बहुत अच्छा नहीं चल रहा. पिछले साल अक्षय की तीन फिल्में लाइन से सॉलिड कमाई करने में चूक गईं. इस साल भी अक्षय की शुरुआत अच्छी नहीं रही और इमरान हाशमी के साथ उनकी फिल्म 'सेल्फी' बहुत सस्ते में बॉक्स ऑफिस से निपट गई.अगस्त में अक्षय की 'OMG 2' तगड़ी हिट साबित हुई तो लगा कि शायद उनके लिए अब सबकुछ ठीक होने लगा है. लेकिन अब अक्षय की नई फिल्म 'मिशन रानीगंज' थिएटर्स में रिलीज हो चुकी है. और इस फिल्म के साथ जो हो रहा है वो बताता है कि अभी अक्षय के लिए सबकुछ ठीक नहीं हुआ है. अभी अक्षय को बॉक्स ऑफिस पर कामयाबी देखने के लिए थोड़ा और लंबा इन्तजार करना पड़ेगा. 'मिशन रानीगंज' को पहले ही दिन से ऐसी ठंडी शुरुआत मिली है कि थिएटर्स में इसका भविष्य कमजोर नजर आने लगा है.सॉलिड ओपनिंग में फेल 'मिशन रानीगंज'अक्षय की फिल्म शुक्रवार को थिएटर्स में पहुंचने वाली सबसे बड़ी फिल्म थी. रिपोर्ट्स बताती हैं कि इसे करीब 2500 स्क्रीन पर रिलीज किया गया है. लेकिन इस फिल्म को लेकर माहौल इतना ठंडा था कि इसकी बुकिंग, पिछले कुछ समय में अक्षय की सबसे बड़ी फ्लॉप 'सेल्फी' से भी कमजोर रही. इसी से लगने लगा था किअक्षय की फिल्म पहले दिन ही दम न तोड़ दे.ट्रेड रिपोर्ट्स बता रही हैं कि बॉक्स ऑफिस पर अक्षय की 'मिशन रानीगंज' के साथ ऐसा ही कुछ हुआ है. फिल्म ने पहले दिन 2 से 2.5 करोड़ रुपये की रेंज में कलेक्शन किया है. 2019 में बॉलीवुड के लिए बॉक्स ऑफिस पर सबसे बड़ा नेट कलेक्शन लेकर आने वाले अक्षय की फिल्म को इतनी फीकी शुरुआत मिलना शॉकिंग है.</t>
+  </si>
+  <si>
+    <t>https://www.aajtak.in/entertainment/bollywood-news/story/mission-raniganj-crashes-on-day-1-akshay-kumar-lowest-box-office-opening-in-a-decade-tmovs-1794271-2023-10-07</t>
+  </si>
+  <si>
+    <t>UP: आवेदन की माला पहन 'तहसील दिवस' में पहुंचा युवक, बोला- मेरी समस्या का नहीं हो रहा समाधान</t>
+  </si>
+  <si>
+    <t>यूपी के झांसी जिले में हैरान करने वाली घटना हुआ है. यहां पर तहसील दिवस का आयोजन किया गया था. इसमें जनता की तहसील से जुड़े कार्यों की परेशानियों सुनने और उन्हें दूर करने के लिए तहसीलदार सहित अन्य अधिकारी-कर्मचारी मौजूद थे. इसी दौरान एक युवक वहां पहुंचा और वह गले में प्रार्थन पत्रों की माला पहले हुए थे.पूछने पर युवक का कहना था कि यह वह प्रार्थना पत्र हैं जिन्हें वे जिम्मेदार अधिकारी-कर्मचारियों की बीते समय में अपनी जमीन से जुड़े मामले में दे चुका है, लेकिन उसकी परेशानी का समाधान नहीं हुआ है. तहसील दिवस पर पहुंचे व्यक्ति से तहसीलदार ने खुद मुकालात की और उसके परेशानी को जल्द से जल्द दूर करने का आश्वासन भी दिया है.दरअसल, मामला जिले के मऊरानीपुर क्षेत्र का है.तहसील के सिलगुआ गांव का रहने वालीकैलाश नाम का युवक तहसील दिवस के मौके पर तहसील कार्यालय पहुंचा था. उसे देख कर अधिकारी-कर्मचारी सहित अन्य लोग हैरान रहे गए.देखें वीडियो...</t>
+  </si>
+  <si>
+    <t>https://www.aajtak.in/uttar-pradesh/story/man-reached-the-officials-wearing-a-garland-of-application-form-in-jhansi-lclg-1794547-2023-10-07</t>
+  </si>
+  <si>
+    <t>UP: हर बुधवार महिलाओं के बीच पहुंचेंगी ‘शक्ति दीदी’, जानिए इस अभियान का उद्देश्य</t>
+  </si>
+  <si>
+    <t xml:space="preserve">उत्तर प्रदेश में हर बुधवार महिलाओं के बीच ‘शक्ति दीदी’ पहुंचेंगी और जागरूक करेंगी. इसके तहत महिला पुलिसकर्मी सार्वजनिक स्थानों और महिलाओं के बीच पहुंचकर योजनाओं के लिए उनको जागरूक करेंगी. महिलाओं से संबंधित कानूनों के बारे में भी बताएंगी. 'मिशन शक्ति' के तहत यूपी के गृह विभाग ने योजना तैयार की है. इसमें दूसरे विभाग के समन्वय से काम होगा.दरअसल, शारदीय नवरात्र पर यूपी सरकार आधी आबादी को जागरूक और आत्मनिर्भर करने के लिए एक पहल करने जा रही है. महिलाओं के लिए ख़ास तौर पर मिशन शक्ति अभियान के तहत 'शक्ति दीदी' की शुरुआत होने वाली है. हर सप्ताह बुधवार के दिन दो महिला पुलिसकर्मी की टीम गांव और शहरों में सार्वजनिक स्थानों पर महिलाओं के बीच पहुंचेगी. इन महिला पुलिस कर्मियों को शक्ति दीदी कहाजाएगा.योजनाओं का लाभ लेने के लिएकिया जाएगाप्रोत्साहित'शक्ति दीदी' का काम महिलाओं को जागरूक करना होगा. वर्तमान में केंद्र और राज्य सरकार की कई योजनाएं ऐसी हैं, जो महिला प्रधान हैं. ऐसे में महिलाओं को इन योजनाओं के बारे में जानकारी दी जाएगी. उन्हें योजनाओं का लाभ लेने के लिए प्रोत्साहित भी किया जाएगा.खास बात यह है कि इस अभियान के दौरान अलग-अलग विभागों के समन्वय से अभियान को सफल बनाया जाएगा. ग्राम पंचायत और न्याय पंचायतों में भ्रमण के दौरान शक्ति दीदी के साथ बैंक कॉरेस्पॉन्डेट सखी (BC Sakhi) राजस्व लेखपाल, एएनएम और आशा वर्कर भी मौजूद रहेंगी. शहरी क्षेत्रों में शक्ति दीदी अभियान के लिए अलग से योजना तैयार की गई है.योजनाओं की सूची तैयार कर बताया जाएगाप्रधानमंत्री मातृ वंदना योजना, बेटी बचाओ बेटी पढ़ाओ, प्रधानमंत्री उज्ज्वला योजना, पीएम स्वनिधि योजना, पीएम सम्मान निधि योजना, वन स्टाप सेंटर सेफ सिटी योजना, आयुष्मान योजना, सुरक्षित मातृत्व आश्वासन सुमन योजना, प्रधानमंत्री फ्री सिलाई मशीन योजना, महिला शक्ति केंद्र योजना, यूपी भाग्य लक्ष्मी योजना, मुख्यमंत्री अभ्युदय योजना और महिला ई-हाट योजना जैसी योजनाएं हैं. इनका लाभ महिलाओं को मिल रहा है. इनकी सूची तैयार करके महिलाओं को बताया जाएगा.विभिन्न विभागों के समन्वय से चलेगा अभियानदरअसल, यूपी के मुख्यमंत्री योगी आदित्यनाथ के निर्देश पर 'मिशन शक्ति' योजना की शुरुआत की गई थी. इसकी सफलता और महिलाओं में इसके प्रभाव को देखते हुए इसके दूसरे चरण के लिए 'शक्ति दीदी' अभियान को शामिल करने की योजना तैयार की गई है. गृह विभाग ने इसके लिए कार्ययोजना बनाई है. इसके तहत महिलाओं और बच्चों से संबंधित कानूनों जैसे घरेलू हिंसा, दहेज निषेध, कार्यस्थल पर लैंगिक उत्पीड़न, अनैतिक व्यापार निवारण, पॉक्सो, बाल विवाह निषेध, बाल श्रम की जानकारी भी महिलाओं को दी जाएगी. </t>
+  </si>
+  <si>
+    <t>https://www.aajtak.in/uttar-pradesh/story/shakti-didi-will-make-women-aware-in-up-female-policemen-will-give-information-schemes-laws-lclcn-1794501-2023-10-07</t>
+  </si>
+  <si>
+    <t>देवरिया हत्याकांड: प्रेम चंद की जमीनों का तहसीलदार करेंगे मुआयना, कोर्ट में हुई सुनवाई</t>
+  </si>
+  <si>
+    <t>उत्तर प्रदेश के देवरिया हत्याकांड में दबंग प्रेम चंद यादव पुत्र राम भवन यादव के मकान पर राजस्व टीम ने कल शाम बेदखली का नोटिस चस्पा किया था. साथ ही7 अक्टूबर यानि की आज तहसीलदार की कोर्ट संख्या 2 में स्वयं या अधिवक्ता के माध्यम से प्रस्तुत होकर कारण बताओ नोटिस का जवाब देना था. इस मामले में आज रामभवन यादव की छोटी बहू किरण और प्रेम यादव की बेटी कोर्ट पहुंचे.सुनवाई के बाद अब 9 अक्टूबर को तहसीलदार मौके पर जाकर निरीक्षण करेंगे और पक्ष सुनेंगे.अधिवक्ता गोपीनाथ यादव नेकहा किबताया एक नोटिस जारी किया,जिसमें वन विभाग की जमीन पर बाउंड्री वॉल और छप्पर से अतिक्रमण किया गया है, जबकि दो नोटिस साइलेंट थे. जिसे बताया नहीं गया था.अराजी संख्या 2726 में रकबा 20 एयर में 6 एयर पर मकान और बाउंडरी वाल दिखाया गया है जो नवीन परती की भूमि है.अराजी संख्या 2725 अराजी रकबा 45 एयर इसमे 20 एयर पर पक्की मकान और बाउंडरी वाल दिखाया गया यह भूमि खलिहान की है.अराजी संख्या 2742 रकबा 0.583 हेक्टेयर जमीन में 0.06 हेक्टेयर भूमि पर बाउंडरी वाल और छप्पर दिखाया गया है जो वन विभाग की भूमि हैपांच आरोपियों के मकान पर राजस्व टीम ने बेदखली का नोटिस चस्पा देवरिया हत्याकांड में दबंग प्रेम चंद यादव पुत्र राम भवन यादव समेत पांच आरोपियों के मकान पर राजस्व टीम ने बेदखली का नोटिस चस्पा कर दिया है. नोटिस में लिखा गया है कि इन्होंने सरकारी जमीनों पर अतिक्रमण कर अवैध तरीके से पक्का निर्माण कर कब्जा किया है. इसमें 7 अक्टूबर को तहसीलदार की कोर्ट संख्या 2 में स्वयं या अधिवक्ता के माध्यम से प्रस्तुत होकर कारण बताओ नोटिस का जवाब देना था.कहा गया था कि नोटिस का जवाब नहीं देने पर तहसील प्रशासन द्वारा एकपक्षीय आदेश जारी कर दिया जाएगा और तय अवधि में अतिक्रमण जमीन या मकान के हिस्से को ढहा दिया जाएगा. आपको बता दें कि लेखपाल ने 2 दिन पूर्व उत्तर प्रदेश राजस्व संहिता 2006 की धारा 67 के तहत तहसीलदार कोर्ट में 5 के खिलाफ वाद दाखिल किया था, जिसके बाद यह कार्रवाई की गईजमीन विवाद में 6 की हत्यागौरतलब है कि फतेहपुर ग्राम के लेड़हा टोला के रहने वाले सत्य प्रकाश दुबे और अभयपुर टोला के रहने वाले समाजवादी पार्टी के पूर्व जिला पंचायत सदस्य प्रेमचंद यादव के बीच जमीन का विवाद चल रहा था. इसमें सत्य प्रकाश के दुबे के छोटे भाई ज्ञान प्रकाश दुबे ने अपने हिस्से की जमीन प्रेमचंद यादव को बैनामा कर दिया थी,इसी को लेकर आए दिन विवाद चलता था.सत्य प्रकाश दुबे द्वारा तहसील व पुलिस प्रशासन में यह शिकायत की गई थी कि प्रेमचंद यादव ने सरकारी जमीन खलिहान की जमीन वन विभाग की जमीन और सरकारी स्कूल की जमीन पर कब्जा कर मकान बनवाया है, लेकिन प्रेमचंद यादव की पुलिस व प्रशासन में अच्छी पकड़ होने के चलते फर्जी रिपोर्ट लगाकर मामले का निस्तारण किया दिया जाता था.2 अक्टूबर को रुद्रपुर कोतवाली के फतेहपुर गांव में जमीनी विवाद में पहले प्रेम चंद यादव की हत्या की गई. उसके प्रतिशोध में सत्य प्रकाश दुबे समेत उनके परिवार के 5 सदस्यों की निर्मम हत्या की गई थी. इसमें सत्य प्रकाश की बड़ी बेटी शोभिता की तहरीर पर पुलिस ने 27 नामजद और 50 अज्ञात के विरुद्ध केस दर्ज करते हुए कुल 20 अभियुक्तो को जेल भेज दिया है.</t>
+  </si>
+  <si>
+    <t>https://www.aajtak.in/uttar-pradesh/story/deoria-murder-case-prem-chand-yadav-land-dispute-lclg-1794490-2023-10-07</t>
+  </si>
+  <si>
+    <t>World</t>
+  </si>
+  <si>
+    <t>Sports</t>
+  </si>
+  <si>
+    <t>Crime</t>
+  </si>
+  <si>
+    <t>Science</t>
+  </si>
+  <si>
+    <t>Politics</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>Judiciary</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Entertainment</t>
+  </si>
+  <si>
+    <t>HindiBody</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -298,13 +298,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -342,7 +350,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -376,6 +384,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -410,9 +419,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -585,14 +595,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -605,8 +617,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -614,300 +629,360 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="C5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
+      <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
+      <c r="C8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B7" t="s">
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B9" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="C9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>28</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B10" t="s">
         <v>29</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
+      <c r="B11" t="s">
         <v>32</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="B12" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
+      <c r="C12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B10" t="s">
+      <c r="E12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>37</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B13" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="C13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
+      <c r="E13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>40</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B14" t="s">
         <v>41</v>
       </c>
-      <c r="C11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="C14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
+      <c r="E14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>43</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B15" t="s">
         <v>44</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
+      <c r="B16" t="s">
         <v>47</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="B17" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
+      <c r="C17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B14" t="s">
+      <c r="E17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>52</v>
       </c>
-      <c r="C14" t="s">
+      <c r="B18" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="C18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
+      <c r="E18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>55</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B19" t="s">
         <v>56</v>
       </c>
-      <c r="C15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="1" t="s">
+      <c r="C19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
+      <c r="E19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>58</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B20" t="s">
         <v>59</v>
       </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="1" t="s">
+      <c r="C20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
+      <c r="E20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>61</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B21" t="s">
         <v>62</v>
       </c>
-      <c r="C17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="1" t="s">
+      <c r="C21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>64</v>
-      </c>
-      <c r="B18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>67</v>
-      </c>
-      <c r="B19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>70</v>
-      </c>
-      <c r="B20" t="s">
-        <v>71</v>
-      </c>
-      <c r="C20" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>73</v>
-      </c>
-      <c r="B21" t="s">
-        <v>74</v>
-      </c>
-      <c r="C21" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>75</v>
+      <c r="E21" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="D4" r:id="rId3"/>
-    <hyperlink ref="D5" r:id="rId4"/>
-    <hyperlink ref="D6" r:id="rId5"/>
-    <hyperlink ref="D7" r:id="rId6"/>
-    <hyperlink ref="D8" r:id="rId7"/>
-    <hyperlink ref="D9" r:id="rId8"/>
-    <hyperlink ref="D10" r:id="rId9"/>
-    <hyperlink ref="D11" r:id="rId10"/>
-    <hyperlink ref="D12" r:id="rId11"/>
-    <hyperlink ref="D13" r:id="rId12"/>
-    <hyperlink ref="D14" r:id="rId13"/>
-    <hyperlink ref="D15" r:id="rId14"/>
-    <hyperlink ref="D16" r:id="rId15"/>
-    <hyperlink ref="D17" r:id="rId16"/>
-    <hyperlink ref="D18" r:id="rId17"/>
-    <hyperlink ref="D19" r:id="rId18"/>
-    <hyperlink ref="D20" r:id="rId19"/>
-    <hyperlink ref="D21" r:id="rId20"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="D7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="D9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="D10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="D11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="D12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="D13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="D14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="D15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="D16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="D17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="D18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="D19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="D20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="D21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
